--- a/Lee Winstanley OTJ Tracker DE L5.xlsx
+++ b/Lee Winstanley OTJ Tracker DE L5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsbanking-my.sharepoint.com/personal/lee_winstanley_lloydsbanking_com/Documents/My Documents/Apprenticeship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewinstanley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0335EA22-D0F0-46B2-BCDB-25BCDD671E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96350A-D462-2B44-B36A-429D8911134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15780" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17080" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="264">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -897,6 +896,12 @@
   </si>
   <si>
     <t>Lee Winstanley</t>
+  </si>
+  <si>
+    <t>BPP School of Big Tech Apprenticeship Meetup</t>
+  </si>
+  <si>
+    <t>Agile ways of working. Discussiion on the future of A.I</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2205,41 +2210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2249,12 +2227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2295,6 +2267,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2316,24 +2342,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,7 +2355,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2467,9 +2475,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2507,7 +2515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2613,7 +2621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2755,7 +2763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2766,23 +2774,23 @@
   <dimension ref="A1:AP312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="54.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -2822,7 +2830,7 @@
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="56" t="s">
         <v>0</v>
@@ -2831,12 +2839,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="160"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="170"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="2"/>
@@ -2865,16 +2873,16 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="165"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="54"/>
@@ -2911,7 +2919,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="68" t="s">
         <v>261</v>
@@ -2952,7 +2960,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="57" t="s">
         <v>2</v>
@@ -2972,14 +2980,14 @@
       <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="167"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="163"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3008,7 +3016,7 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="147" t="s">
         <v>8</v>
@@ -3016,7 +3024,7 @@
       <c r="C6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="196">
+      <c r="D6" s="149">
         <v>45311</v>
       </c>
       <c r="E6" s="148">
@@ -3029,7 +3037,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="178"/>
+      <c r="H6" s="167"/>
       <c r="I6" s="2"/>
       <c r="J6" s="145"/>
       <c r="K6" s="145"/>
@@ -3065,13 +3073,17 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="197">
+        <v>45708</v>
+      </c>
       <c r="E7" s="58">
         <v>12</v>
       </c>
@@ -3080,9 +3092,9 @@
       </c>
       <c r="G7" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="178"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="167"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3118,13 +3130,17 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="197">
+        <v>45743</v>
+      </c>
       <c r="E8" s="58">
         <v>15</v>
       </c>
@@ -3133,9 +3149,9 @@
       </c>
       <c r="G8" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="178"/>
+        <v>32</v>
+      </c>
+      <c r="H8" s="167"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3171,7 +3187,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="84" t="s">
         <v>11</v>
@@ -3188,7 +3204,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="178"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3224,7 +3240,7 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="92" t="s">
         <v>12</v>
@@ -3241,7 +3257,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="178"/>
+      <c r="H10" s="167"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3277,7 +3293,7 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="84" t="s">
         <v>13</v>
@@ -3294,7 +3310,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="178"/>
+      <c r="H11" s="167"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3330,7 +3346,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="84" t="s">
         <v>14</v>
@@ -3347,7 +3363,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="178"/>
+      <c r="H12" s="167"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3383,7 +3399,7 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="84" t="s">
         <v>15</v>
@@ -3400,7 +3416,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="178"/>
+      <c r="H13" s="167"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3436,7 +3452,7 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="84" t="s">
         <v>16</v>
@@ -3453,7 +3469,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="178"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3489,7 +3505,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="84" t="s">
         <v>17</v>
@@ -3506,7 +3522,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="178"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3542,7 +3558,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="84" t="s">
         <v>18</v>
@@ -3559,7 +3575,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="178"/>
+      <c r="H16" s="167"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3595,7 +3611,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="84" t="s">
         <v>19</v>
@@ -3612,14 +3628,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="178"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="163"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="154"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3648,7 +3664,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="84" t="s">
         <v>20</v>
@@ -3665,7 +3681,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="178"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3701,7 +3717,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="32" t="s">
         <v>21</v>
@@ -3718,9 +3734,9 @@
       </c>
       <c r="G19" s="144">
         <f>SUM(G6:G18)</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="178"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="167"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3756,7 +3772,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3800,7 +3816,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="57" t="s">
         <v>22</v>
@@ -3855,7 +3871,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="58" t="s">
         <v>27</v>
@@ -3870,14 +3886,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="150"/>
+      <c r="H22" s="175"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="163"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="154"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3906,7 +3922,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="58" t="s">
         <v>28</v>
@@ -3921,7 +3937,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="150"/>
+      <c r="H23" s="175"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3957,7 +3973,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="58" t="s">
         <v>29</v>
@@ -3972,7 +3988,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="150"/>
+      <c r="H24" s="175"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4008,7 +4024,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="58" t="s">
         <v>30</v>
@@ -4023,7 +4039,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="150"/>
+      <c r="H25" s="175"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4059,7 +4075,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="58" t="s">
         <v>31</v>
@@ -4074,7 +4090,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="150"/>
+      <c r="H26" s="175"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4110,7 +4126,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -4118,7 +4134,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
-      <c r="H27" s="150"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4154,7 +4170,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="59" t="s">
         <v>7</v>
@@ -4173,7 +4189,7 @@
         <f>SUM(G22:H27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="150"/>
+      <c r="H28" s="175"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4209,22 +4225,22 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="174"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="163"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="163"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="154"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4253,7 +4269,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="20" t="s">
         <v>32</v>
@@ -4262,12 +4278,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="171"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="160"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4296,15 +4312,15 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="166"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4342,7 +4358,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>34</v>
@@ -4385,7 +4401,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -4429,7 +4445,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="35"/>
       <c r="C34" s="41"/>
@@ -4473,7 +4489,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="57" t="s">
         <v>35</v>
@@ -4484,23 +4500,23 @@
       <c r="D35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="155" t="s">
+      <c r="E35" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="155"/>
+      <c r="F35" s="172"/>
       <c r="G35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="151" t="s">
+      <c r="H35" s="176" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="163"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="154"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4529,15 +4545,25 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="152"/>
+      <c r="B36" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="64">
+        <v>45701</v>
+      </c>
+      <c r="E36" s="173" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="174"/>
+      <c r="G36" s="108">
+        <v>7</v>
+      </c>
+      <c r="H36" s="177"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4573,22 +4599,22 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
       <c r="B37" s="84"/>
       <c r="C37" s="80"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="174"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="152"/>
+      <c r="H37" s="177"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="157"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4617,15 +4643,15 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="84"/>
       <c r="C38" s="80"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="152"/>
+      <c r="H38" s="177"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4661,22 +4687,22 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="92"/>
       <c r="C39" s="80"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="152"/>
+      <c r="H39" s="177"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="163"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="154"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4705,15 +4731,15 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="84"/>
       <c r="C40" s="80"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="152"/>
+      <c r="H40" s="177"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4749,15 +4775,15 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="84"/>
       <c r="C41" s="80"/>
       <c r="D41" s="83"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="152"/>
+      <c r="H41" s="177"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4793,15 +4819,15 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="84"/>
       <c r="C42" s="80"/>
       <c r="D42" s="83"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="152"/>
+      <c r="H42" s="177"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4837,15 +4863,15 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="84"/>
       <c r="C43" s="80"/>
       <c r="D43" s="83"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="152"/>
+      <c r="H43" s="177"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4881,14 +4907,14 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="84"/>
       <c r="C44" s="80"/>
       <c r="D44" s="83"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="H44" s="152"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="H44" s="177"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4924,15 +4950,15 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="84"/>
       <c r="C45" s="80"/>
       <c r="D45" s="83"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="108"/>
-      <c r="H45" s="152"/>
+      <c r="H45" s="177"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4968,15 +4994,15 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="84"/>
       <c r="C46" s="80"/>
       <c r="D46" s="83"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
       <c r="G46" s="108"/>
-      <c r="H46" s="152"/>
+      <c r="H46" s="177"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5012,15 +5038,15 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="84"/>
       <c r="C47" s="80"/>
       <c r="D47" s="83"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
       <c r="G47" s="108"/>
-      <c r="H47" s="152"/>
+      <c r="H47" s="177"/>
       <c r="I47" s="43"/>
       <c r="J47" s="37"/>
       <c r="K47" s="2"/>
@@ -5056,15 +5082,15 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="84"/>
       <c r="C48" s="80"/>
       <c r="D48" s="83"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
       <c r="G48" s="63"/>
-      <c r="H48" s="152"/>
+      <c r="H48" s="177"/>
       <c r="I48" s="43"/>
       <c r="J48" s="37"/>
       <c r="K48" s="2"/>
@@ -5100,15 +5126,15 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="85"/>
       <c r="C49" s="80"/>
       <c r="D49" s="58"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
       <c r="G49" s="63"/>
-      <c r="H49" s="152"/>
+      <c r="H49" s="177"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5144,15 +5170,15 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="81"/>
       <c r="C50" s="80"/>
       <c r="D50" s="58"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
       <c r="G50" s="63"/>
-      <c r="H50" s="152"/>
+      <c r="H50" s="177"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5188,15 +5214,15 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="81"/>
       <c r="C51" s="80"/>
       <c r="D51" s="58"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
       <c r="G51" s="63"/>
-      <c r="H51" s="152"/>
+      <c r="H51" s="177"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5232,15 +5258,15 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="81"/>
       <c r="C52" s="80"/>
       <c r="D52" s="58"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
       <c r="G52" s="63"/>
-      <c r="H52" s="152"/>
+      <c r="H52" s="177"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5276,15 +5302,15 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="81"/>
       <c r="C53" s="80"/>
       <c r="D53" s="58"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
       <c r="G53" s="63"/>
-      <c r="H53" s="152"/>
+      <c r="H53" s="177"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5320,15 +5346,15 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="81"/>
       <c r="C54" s="80"/>
       <c r="D54" s="58"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
       <c r="G54" s="63"/>
-      <c r="H54" s="152"/>
+      <c r="H54" s="177"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5364,15 +5390,15 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="58"/>
       <c r="C55" s="80"/>
       <c r="D55" s="58"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="152"/>
+      <c r="H55" s="177"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5408,15 +5434,15 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="58"/>
       <c r="C56" s="80"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="149"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
       <c r="G56" s="63"/>
-      <c r="H56" s="152"/>
+      <c r="H56" s="177"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5452,15 +5478,15 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="58"/>
       <c r="C57" s="80"/>
       <c r="D57" s="58"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
       <c r="G57" s="63"/>
-      <c r="H57" s="152"/>
+      <c r="H57" s="177"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5496,15 +5522,15 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="58"/>
       <c r="C58" s="80"/>
       <c r="D58" s="58"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
       <c r="G58" s="63"/>
-      <c r="H58" s="152"/>
+      <c r="H58" s="177"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5540,15 +5566,15 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="58"/>
       <c r="C59" s="80"/>
       <c r="D59" s="58"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
       <c r="G59" s="63"/>
-      <c r="H59" s="152"/>
+      <c r="H59" s="177"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5584,15 +5610,15 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="58"/>
       <c r="C60" s="80"/>
       <c r="D60" s="58"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
       <c r="G60" s="63"/>
-      <c r="H60" s="152"/>
+      <c r="H60" s="177"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5628,20 +5654,20 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="131" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="132"/>
       <c r="D61" s="133"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
       <c r="G61" s="36">
         <f>SUM(G36:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="153"/>
+        <v>7</v>
+      </c>
+      <c r="H61" s="178"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5677,7 +5703,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="138"/>
       <c r="C62" s="134"/>
@@ -5721,7 +5747,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="136" t="s">
         <v>40</v>
@@ -5732,7 +5758,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="51">
         <f>G61+G19+G28+G62</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="H63" s="44"/>
       <c r="I63" s="2"/>
@@ -5770,7 +5796,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5814,7 +5840,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="D65" s="2"/>
@@ -5856,7 +5882,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="58" t="s">
         <v>41</v>
@@ -5904,14 +5930,14 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="58">
         <f>G63</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -5952,14 +5978,14 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="60">
         <f>C66-C67</f>
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -6000,7 +6026,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="D69" s="2"/>
@@ -6042,7 +6068,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="D70" s="2"/>
@@ -6084,7 +6110,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="D71" s="2"/>
@@ -6126,7 +6152,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6170,7 +6196,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6214,7 +6240,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6258,7 +6284,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6302,7 +6328,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6346,7 +6372,7 @@
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6390,7 +6416,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6434,7 +6460,7 @@
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6478,7 +6504,7 @@
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6522,7 +6548,7 @@
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6566,7 +6592,7 @@
       <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6610,7 +6636,7 @@
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6654,7 +6680,7 @@
       <c r="AO83" s="2"/>
       <c r="AP83" s="2"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6698,7 +6724,7 @@
       <c r="AO84" s="2"/>
       <c r="AP84" s="2"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6742,7 +6768,7 @@
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6786,7 +6812,7 @@
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6823,7 +6849,7 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6860,7 +6886,7 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6897,7 +6923,7 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6934,7 +6960,7 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6971,7 +6997,7 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7008,7 +7034,7 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7045,7 +7071,7 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7082,7 +7108,7 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7119,7 +7145,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7156,7 +7182,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7193,7 +7219,7 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7230,7 +7256,7 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7267,7 +7293,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7304,7 +7330,7 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7341,7 +7367,7 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7378,7 +7404,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7415,7 +7441,7 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7452,7 +7478,7 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7489,7 +7515,7 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7526,7 +7552,7 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -7562,7 +7588,7 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7599,7 +7625,7 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7636,7 +7662,7 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7673,7 +7699,7 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7710,7 +7736,7 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7747,7 +7773,7 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7784,7 +7810,7 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7821,7 +7847,7 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7858,7 +7884,7 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7895,7 +7921,7 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7932,7 +7958,7 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7969,7 +7995,7 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8006,7 +8032,7 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8043,7 +8069,7 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8080,7 +8106,7 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8117,7 +8143,7 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8154,7 +8180,7 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8191,7 +8217,7 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8228,7 +8254,7 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8265,7 +8291,7 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8302,7 +8328,7 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8339,7 +8365,7 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8376,7 +8402,7 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8413,7 +8439,7 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8450,7 +8476,7 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8487,7 +8513,7 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8524,7 +8550,7 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8561,7 +8587,7 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8598,7 +8624,7 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8635,7 +8661,7 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8672,7 +8698,7 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8709,7 +8735,7 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8746,7 +8772,7 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8783,7 +8809,7 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8820,7 +8846,7 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8857,7 +8883,7 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8877,7 +8903,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8897,7 +8923,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8917,7 +8943,7 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8937,7 +8963,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8957,7 +8983,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8977,7 +9003,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8997,7 +9023,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9017,7 +9043,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9037,7 +9063,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9057,7 +9083,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9077,7 +9103,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9097,7 +9123,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9117,7 +9143,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9137,7 +9163,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9157,7 +9183,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9177,7 +9203,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9197,7 +9223,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9217,7 +9243,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9237,7 +9263,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9257,7 +9283,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9277,7 +9303,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9297,7 +9323,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9317,7 +9343,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9337,7 +9363,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9357,7 +9383,7 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9377,7 +9403,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9397,7 +9423,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9417,7 +9443,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9437,7 +9463,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9457,7 +9483,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9477,7 +9503,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9497,7 +9523,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9517,7 +9543,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9537,7 +9563,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9557,7 +9583,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9577,7 +9603,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9597,7 +9623,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9617,7 +9643,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9637,7 +9663,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9657,7 +9683,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9677,7 +9703,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9697,7 +9723,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9717,7 +9743,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9737,7 +9763,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9757,7 +9783,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9777,7 +9803,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9797,7 +9823,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9817,7 +9843,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9837,7 +9863,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9857,7 +9883,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9877,7 +9903,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9897,7 +9923,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9917,7 +9943,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9937,7 +9963,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9957,7 +9983,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -9977,7 +10003,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -9997,7 +10023,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10017,7 +10043,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10037,7 +10063,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10057,7 +10083,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10077,7 +10103,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10097,7 +10123,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10117,7 +10143,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10137,7 +10163,7 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10157,7 +10183,7 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10177,7 +10203,7 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10197,7 +10223,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10217,7 +10243,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10237,7 +10263,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10257,7 +10283,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10277,7 +10303,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10297,7 +10323,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10317,7 +10343,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10337,7 +10363,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10357,7 +10383,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10377,7 +10403,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -10397,7 +10423,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -10417,7 +10443,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -10437,7 +10463,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -10457,7 +10483,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -10477,7 +10503,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -10497,7 +10523,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -10517,7 +10543,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -10537,7 +10563,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -10557,7 +10583,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -10577,7 +10603,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -10597,7 +10623,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -10617,7 +10643,7 @@
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -10637,7 +10663,7 @@
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -10657,7 +10683,7 @@
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -10677,7 +10703,7 @@
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -10697,7 +10723,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -10717,7 +10743,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -10737,7 +10763,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -10757,7 +10783,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -10777,7 +10803,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10797,7 +10823,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10817,7 +10843,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10837,7 +10863,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -10857,7 +10883,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -10877,7 +10903,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -10897,7 +10923,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -10917,7 +10943,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -10937,7 +10963,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -10957,7 +10983,7 @@
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -10977,7 +11003,7 @@
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -10997,7 +11023,7 @@
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -11017,7 +11043,7 @@
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -11037,7 +11063,7 @@
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -11057,7 +11083,7 @@
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -11077,7 +11103,7 @@
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -11097,7 +11123,7 @@
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -11117,7 +11143,7 @@
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -11137,7 +11163,7 @@
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -11157,7 +11183,7 @@
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -11177,7 +11203,7 @@
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -11197,7 +11223,7 @@
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -11217,7 +11243,7 @@
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -11237,7 +11263,7 @@
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -11257,7 +11283,7 @@
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -11277,7 +11303,7 @@
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -11297,7 +11323,7 @@
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -11317,7 +11343,7 @@
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -11337,7 +11363,7 @@
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -11357,7 +11383,7 @@
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -11377,7 +11403,7 @@
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -11397,7 +11423,7 @@
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -11410,7 +11436,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -11423,7 +11449,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -11436,7 +11462,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -11449,7 +11475,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -11462,7 +11488,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -11475,7 +11501,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -11488,7 +11514,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -11501,7 +11527,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -11514,7 +11540,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -11527,7 +11553,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -11540,7 +11566,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -11553,7 +11579,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -11566,7 +11592,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -11579,7 +11605,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -11592,7 +11618,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -11605,7 +11631,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -11618,7 +11644,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -11631,7 +11657,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -11644,7 +11670,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -11657,7 +11683,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -11670,7 +11696,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -11683,7 +11709,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -11696,7 +11722,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -11709,7 +11735,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11722,7 +11748,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -11735,106 +11761,106 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
@@ -11842,32 +11868,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -11884,6 +11884,32 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -11903,13 +11929,13 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C20 C33</xm:sqref>
+          <xm:sqref>C33 C9:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C36:C60</xm:sqref>
+          <xm:sqref>C37:C60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -11929,20 +11955,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="39"/>
-    <col min="2" max="2" width="86.21875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.77734375" style="39" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="39"/>
+    <col min="1" max="1" width="9.1640625" style="39"/>
+    <col min="2" max="2" width="86.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.83203125" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="48" t="s">
         <v>45</v>
       </c>
@@ -11950,25 +11976,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="49"/>
     </row>
-    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="49"/>
     </row>
-    <row r="7" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="49"/>
     </row>
-    <row r="8" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
         <v>50</v>
       </c>
@@ -11976,7 +12002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49" t="s">
         <v>52</v>
       </c>
@@ -11984,7 +12010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>54</v>
       </c>
@@ -11992,7 +12018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
         <v>56</v>
       </c>
@@ -12000,7 +12026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
         <v>58</v>
       </c>
@@ -12008,7 +12034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
         <v>59</v>
       </c>
@@ -12016,7 +12042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
         <v>61</v>
       </c>
@@ -12024,61 +12050,61 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="49"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
@@ -12096,7 +12122,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12110,15 +12136,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.21875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="94.21875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="84.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="94.1640625" style="39" customWidth="1"/>
     <col min="3" max="3" width="71" style="39" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="39"/>
+    <col min="4" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>64</v>
       </c>
@@ -12129,7 +12155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
         <v>67</v>
       </c>
@@ -12190,7 +12216,7 @@
       <c r="AZ2" s="43"/>
       <c r="BA2" s="43"/>
     </row>
-    <row r="3" spans="1:53" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>70</v>
       </c>
@@ -12251,7 +12277,7 @@
       <c r="AZ3" s="43"/>
       <c r="BA3" s="43"/>
     </row>
-    <row r="4" spans="1:53" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
         <v>73</v>
       </c>
@@ -12312,7 +12338,7 @@
       <c r="AZ4" s="43"/>
       <c r="BA4" s="43"/>
     </row>
-    <row r="5" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
         <v>76</v>
       </c>
@@ -12373,7 +12399,7 @@
       <c r="AZ5" s="43"/>
       <c r="BA5" s="43"/>
     </row>
-    <row r="6" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
         <v>79</v>
       </c>
@@ -12434,7 +12460,7 @@
       <c r="AZ6" s="43"/>
       <c r="BA6" s="43"/>
     </row>
-    <row r="7" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
         <v>82</v>
       </c>
@@ -12495,7 +12521,7 @@
       <c r="AZ7" s="43"/>
       <c r="BA7" s="43"/>
     </row>
-    <row r="8" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="s">
         <v>85</v>
       </c>
@@ -12554,7 +12580,7 @@
       <c r="AZ8" s="43"/>
       <c r="BA8" s="43"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
         <v>87</v>
       </c>
@@ -12613,7 +12639,7 @@
       <c r="AZ9" s="43"/>
       <c r="BA9" s="43"/>
     </row>
-    <row r="10" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
         <v>89</v>
       </c>
@@ -12672,7 +12698,7 @@
       <c r="AZ10" s="43"/>
       <c r="BA10" s="43"/>
     </row>
-    <row r="11" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
         <v>91</v>
       </c>
@@ -12731,7 +12757,7 @@
       <c r="AZ11" s="43"/>
       <c r="BA11" s="43"/>
     </row>
-    <row r="12" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="88" t="s">
         <v>93</v>
       </c>
@@ -12790,7 +12816,7 @@
       <c r="AZ12" s="43"/>
       <c r="BA12" s="43"/>
     </row>
-    <row r="13" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="s">
         <v>95</v>
       </c>
@@ -12849,7 +12875,7 @@
       <c r="AZ13" s="43"/>
       <c r="BA13" s="43"/>
     </row>
-    <row r="14" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
         <v>97</v>
       </c>
@@ -12908,7 +12934,7 @@
       <c r="AZ14" s="43"/>
       <c r="BA14" s="43"/>
     </row>
-    <row r="15" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="88" t="s">
         <v>99</v>
       </c>
@@ -12967,7 +12993,7 @@
       <c r="AZ15" s="43"/>
       <c r="BA15" s="43"/>
     </row>
-    <row r="16" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="88" t="s">
         <v>101</v>
       </c>
@@ -13026,7 +13052,7 @@
       <c r="AZ16" s="43"/>
       <c r="BA16" s="43"/>
     </row>
-    <row r="17" spans="1:53" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="88" t="s">
         <v>103</v>
       </c>
@@ -13085,7 +13111,7 @@
       <c r="AZ17" s="43"/>
       <c r="BA17" s="43"/>
     </row>
-    <row r="18" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="88" t="s">
         <v>105</v>
       </c>
@@ -13144,7 +13170,7 @@
       <c r="AZ18" s="43"/>
       <c r="BA18" s="43"/>
     </row>
-    <row r="19" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="88" t="s">
         <v>107</v>
       </c>
@@ -13203,7 +13229,7 @@
       <c r="AZ19" s="43"/>
       <c r="BA19" s="43"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="88" t="s">
         <v>109</v>
       </c>
@@ -13262,7 +13288,7 @@
       <c r="AZ20" s="43"/>
       <c r="BA20" s="43"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="88" t="s">
         <v>111</v>
       </c>
@@ -13321,7 +13347,7 @@
       <c r="AZ21" s="43"/>
       <c r="BA21" s="43"/>
     </row>
-    <row r="22" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="88" t="s">
         <v>113</v>
       </c>
@@ -13380,7 +13406,7 @@
       <c r="AZ22" s="43"/>
       <c r="BA22" s="43"/>
     </row>
-    <row r="23" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
         <v>115</v>
       </c>
@@ -13439,7 +13465,7 @@
       <c r="AZ23" s="43"/>
       <c r="BA23" s="43"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="88" t="s">
         <v>117</v>
       </c>
@@ -13498,7 +13524,7 @@
       <c r="AZ24" s="43"/>
       <c r="BA24" s="43"/>
     </row>
-    <row r="25" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="88" t="s">
         <v>119</v>
       </c>
@@ -13557,7 +13583,7 @@
       <c r="AZ25" s="43"/>
       <c r="BA25" s="43"/>
     </row>
-    <row r="26" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>121</v>
       </c>
@@ -13616,7 +13642,7 @@
       <c r="AZ26" s="43"/>
       <c r="BA26" s="43"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="88" t="s">
         <v>123</v>
       </c>
@@ -13675,7 +13701,7 @@
       <c r="AZ27" s="43"/>
       <c r="BA27" s="43"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="88" t="s">
         <v>125</v>
       </c>
@@ -13734,7 +13760,7 @@
       <c r="AZ28" s="43"/>
       <c r="BA28" s="43"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="88" t="s">
         <v>127</v>
       </c>
@@ -13793,7 +13819,7 @@
       <c r="AZ29" s="43"/>
       <c r="BA29" s="43"/>
     </row>
-    <row r="30" spans="1:53" s="88" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" s="88" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="88" t="s">
         <v>129</v>
       </c>
@@ -13852,7 +13878,7 @@
       <c r="AZ30" s="89"/>
       <c r="BA30" s="89"/>
     </row>
-    <row r="31" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="88" t="s">
         <v>131</v>
       </c>
@@ -13909,7 +13935,7 @@
       <c r="AZ31" s="43"/>
       <c r="BA31" s="43"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -13963,7 +13989,7 @@
       <c r="AZ32" s="43"/>
       <c r="BA32" s="43"/>
     </row>
-    <row r="33" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -14017,7 +14043,7 @@
       <c r="AZ33" s="43"/>
       <c r="BA33" s="43"/>
     </row>
-    <row r="34" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -14071,7 +14097,7 @@
       <c r="AZ34" s="43"/>
       <c r="BA34" s="43"/>
     </row>
-    <row r="35" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -14125,7 +14151,7 @@
       <c r="AZ35" s="43"/>
       <c r="BA35" s="43"/>
     </row>
-    <row r="36" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -14179,7 +14205,7 @@
       <c r="AZ36" s="43"/>
       <c r="BA36" s="43"/>
     </row>
-    <row r="37" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -14233,7 +14259,7 @@
       <c r="AZ37" s="43"/>
       <c r="BA37" s="43"/>
     </row>
-    <row r="38" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -14287,7 +14313,7 @@
       <c r="AZ38" s="43"/>
       <c r="BA38" s="43"/>
     </row>
-    <row r="39" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -14341,7 +14367,7 @@
       <c r="AZ39" s="43"/>
       <c r="BA39" s="43"/>
     </row>
-    <row r="40" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -14395,7 +14421,7 @@
       <c r="AZ40" s="43"/>
       <c r="BA40" s="43"/>
     </row>
-    <row r="41" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -14449,7 +14475,7 @@
       <c r="AZ41" s="43"/>
       <c r="BA41" s="43"/>
     </row>
-    <row r="42" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -14503,7 +14529,7 @@
       <c r="AZ42" s="43"/>
       <c r="BA42" s="43"/>
     </row>
-    <row r="43" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -14557,7 +14583,7 @@
       <c r="AZ43" s="43"/>
       <c r="BA43" s="43"/>
     </row>
-    <row r="44" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -14611,7 +14637,7 @@
       <c r="AZ44" s="43"/>
       <c r="BA44" s="43"/>
     </row>
-    <row r="45" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -14665,7 +14691,7 @@
       <c r="AZ45" s="43"/>
       <c r="BA45" s="43"/>
     </row>
-    <row r="46" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -14719,7 +14745,7 @@
       <c r="AZ46" s="43"/>
       <c r="BA46" s="43"/>
     </row>
-    <row r="47" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -14773,7 +14799,7 @@
       <c r="AZ47" s="43"/>
       <c r="BA47" s="43"/>
     </row>
-    <row r="48" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -14827,7 +14853,7 @@
       <c r="AZ48" s="43"/>
       <c r="BA48" s="43"/>
     </row>
-    <row r="49" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -14881,7 +14907,7 @@
       <c r="AZ49" s="43"/>
       <c r="BA49" s="43"/>
     </row>
-    <row r="50" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -14935,7 +14961,7 @@
       <c r="AZ50" s="43"/>
       <c r="BA50" s="43"/>
     </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -14989,7 +15015,7 @@
       <c r="AZ51" s="43"/>
       <c r="BA51" s="43"/>
     </row>
-    <row r="52" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -15043,7 +15069,7 @@
       <c r="AZ52" s="43"/>
       <c r="BA52" s="43"/>
     </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
@@ -15097,7 +15123,7 @@
       <c r="AZ53" s="43"/>
       <c r="BA53" s="43"/>
     </row>
-    <row r="54" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
@@ -15151,7 +15177,7 @@
       <c r="AZ54" s="43"/>
       <c r="BA54" s="43"/>
     </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
@@ -15205,7 +15231,7 @@
       <c r="AZ55" s="43"/>
       <c r="BA55" s="43"/>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
@@ -15259,7 +15285,7 @@
       <c r="AZ56" s="43"/>
       <c r="BA56" s="43"/>
     </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
@@ -15313,7 +15339,7 @@
       <c r="AZ57" s="43"/>
       <c r="BA57" s="43"/>
     </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
@@ -15367,7 +15393,7 @@
       <c r="AZ58" s="43"/>
       <c r="BA58" s="43"/>
     </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -15421,7 +15447,7 @@
       <c r="AZ59" s="43"/>
       <c r="BA59" s="43"/>
     </row>
-    <row r="60" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
       <c r="D60" s="43"/>
@@ -15475,7 +15501,7 @@
       <c r="AZ60" s="43"/>
       <c r="BA60" s="43"/>
     </row>
-    <row r="61" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
@@ -15529,7 +15555,7 @@
       <c r="AZ61" s="43"/>
       <c r="BA61" s="43"/>
     </row>
-    <row r="62" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
@@ -15583,7 +15609,7 @@
       <c r="AZ62" s="43"/>
       <c r="BA62" s="43"/>
     </row>
-    <row r="63" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
@@ -15637,7 +15663,7 @@
       <c r="AZ63" s="43"/>
       <c r="BA63" s="43"/>
     </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
@@ -15691,7 +15717,7 @@
       <c r="AZ64" s="43"/>
       <c r="BA64" s="43"/>
     </row>
-    <row r="65" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
@@ -15745,7 +15771,7 @@
       <c r="AZ65" s="43"/>
       <c r="BA65" s="43"/>
     </row>
-    <row r="66" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
@@ -15799,7 +15825,7 @@
       <c r="AZ66" s="43"/>
       <c r="BA66" s="43"/>
     </row>
-    <row r="67" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
@@ -15853,7 +15879,7 @@
       <c r="AZ67" s="43"/>
       <c r="BA67" s="43"/>
     </row>
-    <row r="68" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="43"/>
@@ -15907,7 +15933,7 @@
       <c r="AZ68" s="43"/>
       <c r="BA68" s="43"/>
     </row>
-    <row r="69" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
       <c r="D69" s="43"/>
@@ -15961,7 +15987,7 @@
       <c r="AZ69" s="43"/>
       <c r="BA69" s="43"/>
     </row>
-    <row r="70" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
@@ -16015,7 +16041,7 @@
       <c r="AZ70" s="43"/>
       <c r="BA70" s="43"/>
     </row>
-    <row r="71" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
@@ -16069,7 +16095,7 @@
       <c r="AZ71" s="43"/>
       <c r="BA71" s="43"/>
     </row>
-    <row r="72" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
       <c r="D72" s="43"/>
@@ -16123,7 +16149,7 @@
       <c r="AZ72" s="43"/>
       <c r="BA72" s="43"/>
     </row>
-    <row r="73" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -16177,7 +16203,7 @@
       <c r="AZ73" s="43"/>
       <c r="BA73" s="43"/>
     </row>
-    <row r="74" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
       <c r="D74" s="43"/>
@@ -16231,7 +16257,7 @@
       <c r="AZ74" s="43"/>
       <c r="BA74" s="43"/>
     </row>
-    <row r="75" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
       <c r="D75" s="43"/>
@@ -16285,7 +16311,7 @@
       <c r="AZ75" s="43"/>
       <c r="BA75" s="43"/>
     </row>
-    <row r="76" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -16339,7 +16365,7 @@
       <c r="AZ76" s="43"/>
       <c r="BA76" s="43"/>
     </row>
-    <row r="77" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
       <c r="D77" s="43"/>
@@ -16393,7 +16419,7 @@
       <c r="AZ77" s="43"/>
       <c r="BA77" s="43"/>
     </row>
-    <row r="78" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
       <c r="D78" s="43"/>
@@ -16447,7 +16473,7 @@
       <c r="AZ78" s="43"/>
       <c r="BA78" s="43"/>
     </row>
-    <row r="79" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
@@ -16501,7 +16527,7 @@
       <c r="AZ79" s="43"/>
       <c r="BA79" s="43"/>
     </row>
-    <row r="80" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
@@ -16555,7 +16581,7 @@
       <c r="AZ80" s="43"/>
       <c r="BA80" s="43"/>
     </row>
-    <row r="81" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
       <c r="D81" s="43"/>
@@ -16609,7 +16635,7 @@
       <c r="AZ81" s="43"/>
       <c r="BA81" s="43"/>
     </row>
-    <row r="82" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
       <c r="D82" s="43"/>
@@ -16663,7 +16689,7 @@
       <c r="AZ82" s="43"/>
       <c r="BA82" s="43"/>
     </row>
-    <row r="83" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="43"/>
@@ -16717,7 +16743,7 @@
       <c r="AZ83" s="43"/>
       <c r="BA83" s="43"/>
     </row>
-    <row r="84" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
       <c r="D84" s="43"/>
@@ -16771,7 +16797,7 @@
       <c r="AZ84" s="43"/>
       <c r="BA84" s="43"/>
     </row>
-    <row r="85" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
@@ -16825,7 +16851,7 @@
       <c r="AZ85" s="43"/>
       <c r="BA85" s="43"/>
     </row>
-    <row r="86" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
@@ -16879,7 +16905,7 @@
       <c r="AZ86" s="43"/>
       <c r="BA86" s="43"/>
     </row>
-    <row r="87" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
       <c r="D87" s="43"/>
@@ -16933,7 +16959,7 @@
       <c r="AZ87" s="43"/>
       <c r="BA87" s="43"/>
     </row>
-    <row r="88" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" s="43"/>
@@ -16999,7 +17025,7 @@
       <c r="BL88" s="43"/>
       <c r="BM88" s="43"/>
     </row>
-    <row r="89" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="43"/>
@@ -17065,7 +17091,7 @@
       <c r="BL89" s="43"/>
       <c r="BM89" s="43"/>
     </row>
-    <row r="90" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="43"/>
@@ -17131,7 +17157,7 @@
       <c r="BL90" s="43"/>
       <c r="BM90" s="43"/>
     </row>
-    <row r="91" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="43"/>
@@ -17197,7 +17223,7 @@
       <c r="BL91" s="43"/>
       <c r="BM91" s="43"/>
     </row>
-    <row r="92" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="43"/>
@@ -17263,7 +17289,7 @@
       <c r="BL92" s="43"/>
       <c r="BM92" s="43"/>
     </row>
-    <row r="93" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
       <c r="D93" s="43"/>
@@ -17329,7 +17355,7 @@
       <c r="BL93" s="43"/>
       <c r="BM93" s="43"/>
     </row>
-    <row r="94" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="43"/>
@@ -17395,7 +17421,7 @@
       <c r="BL94" s="43"/>
       <c r="BM94" s="43"/>
     </row>
-    <row r="95" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="43"/>
@@ -17461,7 +17487,7 @@
       <c r="BL95" s="43"/>
       <c r="BM95" s="43"/>
     </row>
-    <row r="96" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="43"/>
@@ -17527,7 +17553,7 @@
       <c r="BL96" s="43"/>
       <c r="BM96" s="43"/>
     </row>
-    <row r="97" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
@@ -17593,7 +17619,7 @@
       <c r="BL97" s="43"/>
       <c r="BM97" s="43"/>
     </row>
-    <row r="98" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
@@ -17659,7 +17685,7 @@
       <c r="BL98" s="43"/>
       <c r="BM98" s="43"/>
     </row>
-    <row r="99" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
@@ -17725,7 +17751,7 @@
       <c r="BL99" s="43"/>
       <c r="BM99" s="43"/>
     </row>
-    <row r="100" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
@@ -17791,7 +17817,7 @@
       <c r="BL100" s="43"/>
       <c r="BM100" s="43"/>
     </row>
-    <row r="101" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
@@ -17857,7 +17883,7 @@
       <c r="BL101" s="43"/>
       <c r="BM101" s="43"/>
     </row>
-    <row r="102" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -17923,7 +17949,7 @@
       <c r="BL102" s="43"/>
       <c r="BM102" s="43"/>
     </row>
-    <row r="103" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
@@ -17989,7 +18015,7 @@
       <c r="BL103" s="43"/>
       <c r="BM103" s="43"/>
     </row>
-    <row r="104" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
@@ -18055,7 +18081,7 @@
       <c r="BL104" s="43"/>
       <c r="BM104" s="43"/>
     </row>
-    <row r="105" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="43"/>
@@ -18121,7 +18147,7 @@
       <c r="BL105" s="43"/>
       <c r="BM105" s="43"/>
     </row>
-    <row r="106" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="43"/>
@@ -18187,7 +18213,7 @@
       <c r="BL106" s="43"/>
       <c r="BM106" s="43"/>
     </row>
-    <row r="107" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
@@ -18253,7 +18279,7 @@
       <c r="BL107" s="43"/>
       <c r="BM107" s="43"/>
     </row>
-    <row r="108" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="43"/>
@@ -18319,7 +18345,7 @@
       <c r="BL108" s="43"/>
       <c r="BM108" s="43"/>
     </row>
-    <row r="109" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="43"/>
@@ -18385,7 +18411,7 @@
       <c r="BL109" s="43"/>
       <c r="BM109" s="43"/>
     </row>
-    <row r="110" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
       <c r="D110" s="43"/>
@@ -18451,7 +18477,7 @@
       <c r="BL110" s="43"/>
       <c r="BM110" s="43"/>
     </row>
-    <row r="111" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
       <c r="D111" s="43"/>
@@ -18517,7 +18543,7 @@
       <c r="BL111" s="43"/>
       <c r="BM111" s="43"/>
     </row>
-    <row r="112" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
       <c r="D112" s="43"/>
@@ -18583,7 +18609,7 @@
       <c r="BL112" s="43"/>
       <c r="BM112" s="43"/>
     </row>
-    <row r="113" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="43"/>
@@ -18649,7 +18675,7 @@
       <c r="BL113" s="43"/>
       <c r="BM113" s="43"/>
     </row>
-    <row r="114" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
       <c r="D114" s="43"/>
@@ -18715,7 +18741,7 @@
       <c r="BL114" s="43"/>
       <c r="BM114" s="43"/>
     </row>
-    <row r="115" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="43"/>
@@ -18748,7 +18774,7 @@
       <c r="AE115" s="43"/>
       <c r="AF115" s="43"/>
     </row>
-    <row r="116" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
       <c r="D116" s="43"/>
@@ -18781,7 +18807,7 @@
       <c r="AE116" s="43"/>
       <c r="AF116" s="43"/>
     </row>
-    <row r="117" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
       <c r="D117" s="43"/>
@@ -18814,7 +18840,7 @@
       <c r="AE117" s="43"/>
       <c r="AF117" s="43"/>
     </row>
-    <row r="118" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
       <c r="D118" s="43"/>
@@ -18847,7 +18873,7 @@
       <c r="AE118" s="43"/>
       <c r="AF118" s="43"/>
     </row>
-    <row r="119" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
       <c r="D119" s="43"/>
@@ -18880,7 +18906,7 @@
       <c r="AE119" s="43"/>
       <c r="AF119" s="43"/>
     </row>
-    <row r="120" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
       <c r="D120" s="43"/>
@@ -18913,7 +18939,7 @@
       <c r="AE120" s="43"/>
       <c r="AF120" s="43"/>
     </row>
-    <row r="121" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
       <c r="D121" s="43"/>
@@ -18946,7 +18972,7 @@
       <c r="AE121" s="43"/>
       <c r="AF121" s="43"/>
     </row>
-    <row r="122" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="D122" s="43"/>
@@ -18979,7 +19005,7 @@
       <c r="AE122" s="43"/>
       <c r="AF122" s="43"/>
     </row>
-    <row r="123" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="D123" s="43"/>
@@ -19012,7 +19038,7 @@
       <c r="AE123" s="43"/>
       <c r="AF123" s="43"/>
     </row>
-    <row r="124" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
       <c r="D124" s="43"/>
@@ -19045,7 +19071,7 @@
       <c r="AE124" s="43"/>
       <c r="AF124" s="43"/>
     </row>
-    <row r="125" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
@@ -19078,7 +19104,7 @@
       <c r="AE125" s="43"/>
       <c r="AF125" s="43"/>
     </row>
-    <row r="126" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="43"/>
@@ -19111,7 +19137,7 @@
       <c r="AE126" s="43"/>
       <c r="AF126" s="43"/>
     </row>
-    <row r="127" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
@@ -19144,7 +19170,7 @@
       <c r="AE127" s="43"/>
       <c r="AF127" s="43"/>
     </row>
-    <row r="128" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
@@ -19177,7 +19203,7 @@
       <c r="AE128" s="43"/>
       <c r="AF128" s="43"/>
     </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="43"/>
@@ -19210,7 +19236,7 @@
       <c r="AE129" s="43"/>
       <c r="AF129" s="43"/>
     </row>
-    <row r="130" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
@@ -19243,7 +19269,7 @@
       <c r="AE130" s="43"/>
       <c r="AF130" s="43"/>
     </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
@@ -19276,7 +19302,7 @@
       <c r="AE131" s="43"/>
       <c r="AF131" s="43"/>
     </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
@@ -19309,7 +19335,7 @@
       <c r="AE132" s="43"/>
       <c r="AF132" s="43"/>
     </row>
-    <row r="133" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
       <c r="D133" s="43"/>
@@ -19342,7 +19368,7 @@
       <c r="AE133" s="43"/>
       <c r="AF133" s="43"/>
     </row>
-    <row r="134" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="43"/>
@@ -19375,7 +19401,7 @@
       <c r="AE134" s="43"/>
       <c r="AF134" s="43"/>
     </row>
-    <row r="135" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -19408,7 +19434,7 @@
       <c r="AE135" s="43"/>
       <c r="AF135" s="43"/>
     </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="43"/>
@@ -19441,7 +19467,7 @@
       <c r="AE136" s="43"/>
       <c r="AF136" s="43"/>
     </row>
-    <row r="137" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
       <c r="D137" s="43"/>
@@ -19474,7 +19500,7 @@
       <c r="AE137" s="43"/>
       <c r="AF137" s="43"/>
     </row>
-    <row r="138" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
       <c r="D138" s="43"/>
@@ -19507,7 +19533,7 @@
       <c r="AE138" s="43"/>
       <c r="AF138" s="43"/>
     </row>
-    <row r="139" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
       <c r="D139" s="43"/>
@@ -19540,7 +19566,7 @@
       <c r="AE139" s="43"/>
       <c r="AF139" s="43"/>
     </row>
-    <row r="140" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
       <c r="D140" s="43"/>
@@ -19573,7 +19599,7 @@
       <c r="AE140" s="43"/>
       <c r="AF140" s="43"/>
     </row>
-    <row r="141" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
       <c r="D141" s="43"/>
@@ -19606,7 +19632,7 @@
       <c r="AE141" s="43"/>
       <c r="AF141" s="43"/>
     </row>
-    <row r="142" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
       <c r="D142" s="43"/>
@@ -19639,7 +19665,7 @@
       <c r="AE142" s="43"/>
       <c r="AF142" s="43"/>
     </row>
-    <row r="143" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
       <c r="D143" s="43"/>
@@ -19672,7 +19698,7 @@
       <c r="AE143" s="43"/>
       <c r="AF143" s="43"/>
     </row>
-    <row r="144" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
       <c r="D144" s="43"/>
@@ -19705,7 +19731,7 @@
       <c r="AE144" s="43"/>
       <c r="AF144" s="43"/>
     </row>
-    <row r="145" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
       <c r="D145" s="43"/>
@@ -19738,7 +19764,7 @@
       <c r="AE145" s="43"/>
       <c r="AF145" s="43"/>
     </row>
-    <row r="146" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
       <c r="D146" s="43"/>
@@ -19771,7 +19797,7 @@
       <c r="AE146" s="43"/>
       <c r="AF146" s="43"/>
     </row>
-    <row r="147" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
       <c r="D147" s="43"/>
@@ -19804,7 +19830,7 @@
       <c r="AE147" s="43"/>
       <c r="AF147" s="43"/>
     </row>
-    <row r="148" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="43"/>
@@ -19837,7 +19863,7 @@
       <c r="AE148" s="43"/>
       <c r="AF148" s="43"/>
     </row>
-    <row r="149" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
       <c r="D149" s="43"/>
@@ -19870,7 +19896,7 @@
       <c r="AE149" s="43"/>
       <c r="AF149" s="43"/>
     </row>
-    <row r="150" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
       <c r="D150" s="43"/>
@@ -19903,7 +19929,7 @@
       <c r="AE150" s="43"/>
       <c r="AF150" s="43"/>
     </row>
-    <row r="151" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
       <c r="D151" s="43"/>
@@ -19936,7 +19962,7 @@
       <c r="AE151" s="43"/>
       <c r="AF151" s="43"/>
     </row>
-    <row r="152" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="43"/>
@@ -19969,7 +19995,7 @@
       <c r="AE152" s="43"/>
       <c r="AF152" s="43"/>
     </row>
-    <row r="153" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
       <c r="D153" s="43"/>
@@ -20002,7 +20028,7 @@
       <c r="AE153" s="43"/>
       <c r="AF153" s="43"/>
     </row>
-    <row r="154" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
       <c r="D154" s="43"/>
@@ -20035,7 +20061,7 @@
       <c r="AE154" s="43"/>
       <c r="AF154" s="43"/>
     </row>
-    <row r="155" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
       <c r="D155" s="43"/>
@@ -20068,7 +20094,7 @@
       <c r="AE155" s="43"/>
       <c r="AF155" s="43"/>
     </row>
-    <row r="156" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="43"/>
@@ -20101,7 +20127,7 @@
       <c r="AE156" s="43"/>
       <c r="AF156" s="43"/>
     </row>
-    <row r="157" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
       <c r="D157" s="43"/>
@@ -20134,7 +20160,7 @@
       <c r="AE157" s="43"/>
       <c r="AF157" s="43"/>
     </row>
-    <row r="158" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
       <c r="D158" s="43"/>
@@ -20167,7 +20193,7 @@
       <c r="AE158" s="43"/>
       <c r="AF158" s="43"/>
     </row>
-    <row r="159" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
       <c r="D159" s="43"/>
@@ -20200,7 +20226,7 @@
       <c r="AE159" s="43"/>
       <c r="AF159" s="43"/>
     </row>
-    <row r="160" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="43"/>
@@ -20233,7 +20259,7 @@
       <c r="AE160" s="43"/>
       <c r="AF160" s="43"/>
     </row>
-    <row r="161" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="43"/>
@@ -20266,7 +20292,7 @@
       <c r="AE161" s="43"/>
       <c r="AF161" s="43"/>
     </row>
-    <row r="162" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
       <c r="D162" s="43"/>
@@ -20299,7 +20325,7 @@
       <c r="AE162" s="43"/>
       <c r="AF162" s="43"/>
     </row>
-    <row r="163" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="43"/>
@@ -20332,7 +20358,7 @@
       <c r="AE163" s="43"/>
       <c r="AF163" s="43"/>
     </row>
-    <row r="164" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="43"/>
@@ -20365,7 +20391,7 @@
       <c r="AE164" s="43"/>
       <c r="AF164" s="43"/>
     </row>
-    <row r="165" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
       <c r="D165" s="43"/>
@@ -20398,7 +20424,7 @@
       <c r="AE165" s="43"/>
       <c r="AF165" s="43"/>
     </row>
-    <row r="166" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="43"/>
@@ -20431,7 +20457,7 @@
       <c r="AE166" s="43"/>
       <c r="AF166" s="43"/>
     </row>
-    <row r="167" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
       <c r="D167" s="43"/>
@@ -20464,7 +20490,7 @@
       <c r="AE167" s="43"/>
       <c r="AF167" s="43"/>
     </row>
-    <row r="168" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
       <c r="D168" s="43"/>
@@ -20497,7 +20523,7 @@
       <c r="AE168" s="43"/>
       <c r="AF168" s="43"/>
     </row>
-    <row r="169" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
       <c r="D169" s="43"/>
@@ -20530,7 +20556,7 @@
       <c r="AE169" s="43"/>
       <c r="AF169" s="43"/>
     </row>
-    <row r="170" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
       <c r="D170" s="43"/>
@@ -20563,7 +20589,7 @@
       <c r="AE170" s="43"/>
       <c r="AF170" s="43"/>
     </row>
-    <row r="171" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
       <c r="D171" s="43"/>
@@ -20596,7 +20622,7 @@
       <c r="AE171" s="43"/>
       <c r="AF171" s="43"/>
     </row>
-    <row r="172" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
       <c r="D172" s="43"/>
@@ -20629,7 +20655,7 @@
       <c r="AE172" s="43"/>
       <c r="AF172" s="43"/>
     </row>
-    <row r="173" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
@@ -20662,7 +20688,7 @@
       <c r="AE173" s="43"/>
       <c r="AF173" s="43"/>
     </row>
-    <row r="174" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
       <c r="D174" s="43"/>
@@ -20695,7 +20721,7 @@
       <c r="AE174" s="43"/>
       <c r="AF174" s="43"/>
     </row>
-    <row r="175" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
       <c r="D175" s="43"/>
@@ -20728,7 +20754,7 @@
       <c r="AE175" s="43"/>
       <c r="AF175" s="43"/>
     </row>
-    <row r="176" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
       <c r="D176" s="43"/>
@@ -20761,7 +20787,7 @@
       <c r="AE176" s="43"/>
       <c r="AF176" s="43"/>
     </row>
-    <row r="177" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
       <c r="D177" s="43"/>
@@ -20794,7 +20820,7 @@
       <c r="AE177" s="43"/>
       <c r="AF177" s="43"/>
     </row>
-    <row r="178" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
       <c r="D178" s="43"/>
@@ -20827,7 +20853,7 @@
       <c r="AE178" s="43"/>
       <c r="AF178" s="43"/>
     </row>
-    <row r="179" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
       <c r="D179" s="43"/>
@@ -20860,7 +20886,7 @@
       <c r="AE179" s="43"/>
       <c r="AF179" s="43"/>
     </row>
-    <row r="180" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
       <c r="D180" s="43"/>
@@ -20893,7 +20919,7 @@
       <c r="AE180" s="43"/>
       <c r="AF180" s="43"/>
     </row>
-    <row r="181" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
       <c r="D181" s="43"/>
@@ -20926,7 +20952,7 @@
       <c r="AE181" s="43"/>
       <c r="AF181" s="43"/>
     </row>
-    <row r="182" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
       <c r="D182" s="43"/>
@@ -20959,7 +20985,7 @@
       <c r="AE182" s="43"/>
       <c r="AF182" s="43"/>
     </row>
-    <row r="183" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
       <c r="D183" s="43"/>
@@ -20992,7 +21018,7 @@
       <c r="AE183" s="43"/>
       <c r="AF183" s="43"/>
     </row>
-    <row r="184" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
       <c r="D184" s="43"/>
@@ -21025,7 +21051,7 @@
       <c r="AE184" s="43"/>
       <c r="AF184" s="43"/>
     </row>
-    <row r="185" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
       <c r="D185" s="43"/>
@@ -21058,7 +21084,7 @@
       <c r="AE185" s="43"/>
       <c r="AF185" s="43"/>
     </row>
-    <row r="186" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
       <c r="D186" s="43"/>
@@ -21091,7 +21117,7 @@
       <c r="AE186" s="43"/>
       <c r="AF186" s="43"/>
     </row>
-    <row r="187" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
       <c r="D187" s="43"/>
@@ -21124,7 +21150,7 @@
       <c r="AE187" s="43"/>
       <c r="AF187" s="43"/>
     </row>
-    <row r="188" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
       <c r="D188" s="43"/>
@@ -21157,7 +21183,7 @@
       <c r="AE188" s="43"/>
       <c r="AF188" s="43"/>
     </row>
-    <row r="189" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
       <c r="D189" s="43"/>
@@ -21190,7 +21216,7 @@
       <c r="AE189" s="43"/>
       <c r="AF189" s="43"/>
     </row>
-    <row r="190" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
       <c r="D190" s="43"/>
@@ -21223,7 +21249,7 @@
       <c r="AE190" s="43"/>
       <c r="AF190" s="43"/>
     </row>
-    <row r="191" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
       <c r="D191" s="43"/>
@@ -21256,7 +21282,7 @@
       <c r="AE191" s="43"/>
       <c r="AF191" s="43"/>
     </row>
-    <row r="192" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
       <c r="D192" s="43"/>
@@ -21289,7 +21315,7 @@
       <c r="AE192" s="43"/>
       <c r="AF192" s="43"/>
     </row>
-    <row r="193" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
       <c r="D193" s="43"/>
@@ -21322,7 +21348,7 @@
       <c r="AE193" s="43"/>
       <c r="AF193" s="43"/>
     </row>
-    <row r="194" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
       <c r="D194" s="43"/>
@@ -21355,7 +21381,7 @@
       <c r="AE194" s="43"/>
       <c r="AF194" s="43"/>
     </row>
-    <row r="195" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
       <c r="D195" s="43"/>
@@ -21388,7 +21414,7 @@
       <c r="AE195" s="43"/>
       <c r="AF195" s="43"/>
     </row>
-    <row r="196" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
       <c r="D196" s="43"/>
@@ -21421,7 +21447,7 @@
       <c r="AE196" s="43"/>
       <c r="AF196" s="43"/>
     </row>
-    <row r="197" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
       <c r="D197" s="43"/>
@@ -21454,7 +21480,7 @@
       <c r="AE197" s="43"/>
       <c r="AF197" s="43"/>
     </row>
-    <row r="198" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
       <c r="D198" s="43"/>
@@ -21487,7 +21513,7 @@
       <c r="AE198" s="43"/>
       <c r="AF198" s="43"/>
     </row>
-    <row r="199" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
       <c r="D199" s="43"/>
@@ -21520,7 +21546,7 @@
       <c r="AE199" s="43"/>
       <c r="AF199" s="43"/>
     </row>
-    <row r="200" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
       <c r="D200" s="43"/>
@@ -21553,7 +21579,7 @@
       <c r="AE200" s="43"/>
       <c r="AF200" s="43"/>
     </row>
-    <row r="201" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
       <c r="D201" s="43"/>
@@ -21586,7 +21612,7 @@
       <c r="AE201" s="43"/>
       <c r="AF201" s="43"/>
     </row>
-    <row r="202" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
       <c r="D202" s="43"/>
@@ -21619,7 +21645,7 @@
       <c r="AE202" s="43"/>
       <c r="AF202" s="43"/>
     </row>
-    <row r="203" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
       <c r="D203" s="43"/>
@@ -21652,7 +21678,7 @@
       <c r="AE203" s="43"/>
       <c r="AF203" s="43"/>
     </row>
-    <row r="204" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
       <c r="D204" s="43"/>
@@ -21685,7 +21711,7 @@
       <c r="AE204" s="43"/>
       <c r="AF204" s="43"/>
     </row>
-    <row r="205" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -21718,7 +21744,7 @@
       <c r="AE205" s="43"/>
       <c r="AF205" s="43"/>
     </row>
-    <row r="206" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
       <c r="D206" s="43"/>
@@ -21751,7 +21777,7 @@
       <c r="AE206" s="43"/>
       <c r="AF206" s="43"/>
     </row>
-    <row r="207" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
       <c r="D207" s="43"/>
@@ -21784,7 +21810,7 @@
       <c r="AE207" s="43"/>
       <c r="AF207" s="43"/>
     </row>
-    <row r="208" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
       <c r="D208" s="43"/>
@@ -21817,7 +21843,7 @@
       <c r="AE208" s="43"/>
       <c r="AF208" s="43"/>
     </row>
-    <row r="209" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
       <c r="D209" s="43"/>
@@ -21850,7 +21876,7 @@
       <c r="AE209" s="43"/>
       <c r="AF209" s="43"/>
     </row>
-    <row r="210" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
       <c r="D210" s="43"/>
@@ -21883,7 +21909,7 @@
       <c r="AE210" s="43"/>
       <c r="AF210" s="43"/>
     </row>
-    <row r="211" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
       <c r="D211" s="43"/>
@@ -21916,7 +21942,7 @@
       <c r="AE211" s="43"/>
       <c r="AF211" s="43"/>
     </row>
-    <row r="212" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
       <c r="D212" s="43"/>
@@ -21949,7 +21975,7 @@
       <c r="AE212" s="43"/>
       <c r="AF212" s="43"/>
     </row>
-    <row r="213" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
       <c r="D213" s="43"/>
@@ -21982,7 +22008,7 @@
       <c r="AE213" s="43"/>
       <c r="AF213" s="43"/>
     </row>
-    <row r="214" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
       <c r="D214" s="43"/>
@@ -22015,7 +22041,7 @@
       <c r="AE214" s="43"/>
       <c r="AF214" s="43"/>
     </row>
-    <row r="215" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
       <c r="D215" s="43"/>
@@ -22048,7 +22074,7 @@
       <c r="AE215" s="43"/>
       <c r="AF215" s="43"/>
     </row>
-    <row r="216" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
       <c r="D216" s="43"/>
@@ -22081,7 +22107,7 @@
       <c r="AE216" s="43"/>
       <c r="AF216" s="43"/>
     </row>
-    <row r="217" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
       <c r="D217" s="43"/>
@@ -22114,7 +22140,7 @@
       <c r="AE217" s="43"/>
       <c r="AF217" s="43"/>
     </row>
-    <row r="218" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
       <c r="D218" s="43"/>
@@ -22147,7 +22173,7 @@
       <c r="AE218" s="43"/>
       <c r="AF218" s="43"/>
     </row>
-    <row r="219" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
       <c r="D219" s="43"/>
@@ -22180,7 +22206,7 @@
       <c r="AE219" s="43"/>
       <c r="AF219" s="43"/>
     </row>
-    <row r="220" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
       <c r="D220" s="43"/>
@@ -22213,7 +22239,7 @@
       <c r="AE220" s="43"/>
       <c r="AF220" s="43"/>
     </row>
-    <row r="221" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
       <c r="D221" s="43"/>
@@ -22246,7 +22272,7 @@
       <c r="AE221" s="43"/>
       <c r="AF221" s="43"/>
     </row>
-    <row r="222" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
       <c r="D222" s="43"/>
@@ -22279,7 +22305,7 @@
       <c r="AE222" s="43"/>
       <c r="AF222" s="43"/>
     </row>
-    <row r="223" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
       <c r="D223" s="43"/>
@@ -22312,7 +22338,7 @@
       <c r="AE223" s="43"/>
       <c r="AF223" s="43"/>
     </row>
-    <row r="224" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
       <c r="D224" s="43"/>
@@ -22345,7 +22371,7 @@
       <c r="AE224" s="43"/>
       <c r="AF224" s="43"/>
     </row>
-    <row r="225" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
       <c r="D225" s="43"/>
@@ -22378,7 +22404,7 @@
       <c r="AE225" s="43"/>
       <c r="AF225" s="43"/>
     </row>
-    <row r="226" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
       <c r="D226" s="43"/>
@@ -22411,7 +22437,7 @@
       <c r="AE226" s="43"/>
       <c r="AF226" s="43"/>
     </row>
-    <row r="227" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
       <c r="D227" s="43"/>
@@ -22444,7 +22470,7 @@
       <c r="AE227" s="43"/>
       <c r="AF227" s="43"/>
     </row>
-    <row r="228" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
       <c r="D228" s="43"/>
@@ -22477,7 +22503,7 @@
       <c r="AE228" s="43"/>
       <c r="AF228" s="43"/>
     </row>
-    <row r="229" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
       <c r="D229" s="43"/>
@@ -22510,7 +22536,7 @@
       <c r="AE229" s="43"/>
       <c r="AF229" s="43"/>
     </row>
-    <row r="230" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
       <c r="D230" s="43"/>
@@ -22543,7 +22569,7 @@
       <c r="AE230" s="43"/>
       <c r="AF230" s="43"/>
     </row>
-    <row r="231" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
       <c r="D231" s="43"/>
@@ -22576,7 +22602,7 @@
       <c r="AE231" s="43"/>
       <c r="AF231" s="43"/>
     </row>
-    <row r="232" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
       <c r="D232" s="43"/>
@@ -22609,7 +22635,7 @@
       <c r="AE232" s="43"/>
       <c r="AF232" s="43"/>
     </row>
-    <row r="233" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
       <c r="D233" s="43"/>
@@ -22642,7 +22668,7 @@
       <c r="AE233" s="43"/>
       <c r="AF233" s="43"/>
     </row>
-    <row r="234" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
       <c r="D234" s="43"/>
@@ -22675,7 +22701,7 @@
       <c r="AE234" s="43"/>
       <c r="AF234" s="43"/>
     </row>
-    <row r="235" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
       <c r="D235" s="43"/>
@@ -22708,7 +22734,7 @@
       <c r="AE235" s="43"/>
       <c r="AF235" s="43"/>
     </row>
-    <row r="236" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
       <c r="D236" s="43"/>
@@ -22741,7 +22767,7 @@
       <c r="AE236" s="43"/>
       <c r="AF236" s="43"/>
     </row>
-    <row r="237" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
       <c r="D237" s="43"/>
@@ -22774,7 +22800,7 @@
       <c r="AE237" s="43"/>
       <c r="AF237" s="43"/>
     </row>
-    <row r="238" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
       <c r="D238" s="43"/>
@@ -22807,7 +22833,7 @@
       <c r="AE238" s="43"/>
       <c r="AF238" s="43"/>
     </row>
-    <row r="239" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
       <c r="D239" s="43"/>
@@ -22840,7 +22866,7 @@
       <c r="AE239" s="43"/>
       <c r="AF239" s="43"/>
     </row>
-    <row r="240" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
       <c r="D240" s="43"/>
@@ -22873,7 +22899,7 @@
       <c r="AE240" s="43"/>
       <c r="AF240" s="43"/>
     </row>
-    <row r="241" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
       <c r="D241" s="43"/>
@@ -22906,7 +22932,7 @@
       <c r="AE241" s="43"/>
       <c r="AF241" s="43"/>
     </row>
-    <row r="242" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
       <c r="D242" s="43"/>
@@ -22939,7 +22965,7 @@
       <c r="AE242" s="43"/>
       <c r="AF242" s="43"/>
     </row>
-    <row r="243" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
       <c r="D243" s="43"/>
@@ -22972,7 +22998,7 @@
       <c r="AE243" s="43"/>
       <c r="AF243" s="43"/>
     </row>
-    <row r="244" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
       <c r="D244" s="43"/>
@@ -23005,7 +23031,7 @@
       <c r="AE244" s="43"/>
       <c r="AF244" s="43"/>
     </row>
-    <row r="245" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
       <c r="D245" s="43"/>
@@ -23038,7 +23064,7 @@
       <c r="AE245" s="43"/>
       <c r="AF245" s="43"/>
     </row>
-    <row r="246" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
       <c r="D246" s="43"/>
@@ -23071,7 +23097,7 @@
       <c r="AE246" s="43"/>
       <c r="AF246" s="43"/>
     </row>
-    <row r="247" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
       <c r="D247" s="43"/>
@@ -23104,7 +23130,7 @@
       <c r="AE247" s="43"/>
       <c r="AF247" s="43"/>
     </row>
-    <row r="248" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
       <c r="D248" s="43"/>
@@ -23137,7 +23163,7 @@
       <c r="AE248" s="43"/>
       <c r="AF248" s="43"/>
     </row>
-    <row r="249" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
       <c r="D249" s="43"/>
@@ -23170,7 +23196,7 @@
       <c r="AE249" s="43"/>
       <c r="AF249" s="43"/>
     </row>
-    <row r="250" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
       <c r="D250" s="43"/>
@@ -23203,7 +23229,7 @@
       <c r="AE250" s="43"/>
       <c r="AF250" s="43"/>
     </row>
-    <row r="251" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
       <c r="D251" s="43"/>
@@ -23236,7 +23262,7 @@
       <c r="AE251" s="43"/>
       <c r="AF251" s="43"/>
     </row>
-    <row r="252" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
       <c r="D252" s="43"/>
@@ -23269,7 +23295,7 @@
       <c r="AE252" s="43"/>
       <c r="AF252" s="43"/>
     </row>
-    <row r="253" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B253" s="43"/>
       <c r="C253" s="43"/>
       <c r="D253" s="43"/>
@@ -23302,7 +23328,7 @@
       <c r="AE253" s="43"/>
       <c r="AF253" s="43"/>
     </row>
-    <row r="254" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B254" s="43"/>
       <c r="C254" s="43"/>
       <c r="D254" s="43"/>
@@ -23335,7 +23361,7 @@
       <c r="AE254" s="43"/>
       <c r="AF254" s="43"/>
     </row>
-    <row r="255" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B255" s="43"/>
       <c r="C255" s="43"/>
       <c r="D255" s="43"/>
@@ -23368,7 +23394,7 @@
       <c r="AE255" s="43"/>
       <c r="AF255" s="43"/>
     </row>
-    <row r="256" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B256" s="43"/>
       <c r="C256" s="43"/>
       <c r="D256" s="43"/>
@@ -23401,7 +23427,7 @@
       <c r="AE256" s="43"/>
       <c r="AF256" s="43"/>
     </row>
-    <row r="257" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B257" s="43"/>
       <c r="C257" s="43"/>
       <c r="D257" s="43"/>
@@ -23434,7 +23460,7 @@
       <c r="AE257" s="43"/>
       <c r="AF257" s="43"/>
     </row>
-    <row r="258" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B258" s="43"/>
       <c r="C258" s="43"/>
       <c r="D258" s="43"/>
@@ -23467,7 +23493,7 @@
       <c r="AE258" s="43"/>
       <c r="AF258" s="43"/>
     </row>
-    <row r="259" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B259" s="43"/>
       <c r="C259" s="43"/>
       <c r="D259" s="43"/>
@@ -23500,7 +23526,7 @@
       <c r="AE259" s="43"/>
       <c r="AF259" s="43"/>
     </row>
-    <row r="260" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B260" s="43"/>
       <c r="C260" s="43"/>
       <c r="D260" s="43"/>
@@ -23533,7 +23559,7 @@
       <c r="AE260" s="43"/>
       <c r="AF260" s="43"/>
     </row>
-    <row r="261" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B261" s="43"/>
       <c r="C261" s="43"/>
       <c r="D261" s="43"/>
@@ -23566,7 +23592,7 @@
       <c r="AE261" s="43"/>
       <c r="AF261" s="43"/>
     </row>
-    <row r="262" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B262" s="43"/>
       <c r="C262" s="43"/>
       <c r="D262" s="43"/>
@@ -23599,7 +23625,7 @@
       <c r="AE262" s="43"/>
       <c r="AF262" s="43"/>
     </row>
-    <row r="263" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B263" s="43"/>
       <c r="C263" s="43"/>
       <c r="D263" s="43"/>
@@ -23632,7 +23658,7 @@
       <c r="AE263" s="43"/>
       <c r="AF263" s="43"/>
     </row>
-    <row r="264" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B264" s="43"/>
       <c r="C264" s="43"/>
       <c r="D264" s="43"/>
@@ -23665,7 +23691,7 @@
       <c r="AE264" s="43"/>
       <c r="AF264" s="43"/>
     </row>
-    <row r="265" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B265" s="43"/>
       <c r="C265" s="43"/>
       <c r="D265" s="43"/>
@@ -23698,7 +23724,7 @@
       <c r="AE265" s="43"/>
       <c r="AF265" s="43"/>
     </row>
-    <row r="266" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B266" s="43"/>
       <c r="C266" s="43"/>
       <c r="D266" s="43"/>
@@ -23731,7 +23757,7 @@
       <c r="AE266" s="43"/>
       <c r="AF266" s="43"/>
     </row>
-    <row r="267" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B267" s="43"/>
       <c r="C267" s="43"/>
       <c r="D267" s="43"/>
@@ -23764,7 +23790,7 @@
       <c r="AE267" s="43"/>
       <c r="AF267" s="43"/>
     </row>
-    <row r="268" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B268" s="43"/>
       <c r="C268" s="43"/>
       <c r="D268" s="43"/>
@@ -23797,7 +23823,7 @@
       <c r="AE268" s="43"/>
       <c r="AF268" s="43"/>
     </row>
-    <row r="269" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B269" s="43"/>
       <c r="C269" s="43"/>
       <c r="D269" s="43"/>
@@ -23830,7 +23856,7 @@
       <c r="AE269" s="43"/>
       <c r="AF269" s="43"/>
     </row>
-    <row r="270" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B270" s="43"/>
       <c r="C270" s="43"/>
       <c r="D270" s="43"/>
@@ -23863,7 +23889,7 @@
       <c r="AE270" s="43"/>
       <c r="AF270" s="43"/>
     </row>
-    <row r="271" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B271" s="43"/>
       <c r="C271" s="43"/>
       <c r="D271" s="43"/>
@@ -23896,7 +23922,7 @@
       <c r="AE271" s="43"/>
       <c r="AF271" s="43"/>
     </row>
-    <row r="272" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B272" s="43"/>
       <c r="C272" s="43"/>
       <c r="D272" s="43"/>
@@ -23929,7 +23955,7 @@
       <c r="AE272" s="43"/>
       <c r="AF272" s="43"/>
     </row>
-    <row r="273" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B273" s="43"/>
       <c r="C273" s="43"/>
       <c r="D273" s="43"/>
@@ -23962,7 +23988,7 @@
       <c r="AE273" s="43"/>
       <c r="AF273" s="43"/>
     </row>
-    <row r="274" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B274" s="43"/>
       <c r="C274" s="43"/>
       <c r="D274" s="43"/>
@@ -23995,7 +24021,7 @@
       <c r="AE274" s="43"/>
       <c r="AF274" s="43"/>
     </row>
-    <row r="275" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B275" s="43"/>
       <c r="C275" s="43"/>
       <c r="D275" s="43"/>
@@ -24028,7 +24054,7 @@
       <c r="AE275" s="43"/>
       <c r="AF275" s="43"/>
     </row>
-    <row r="276" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B276" s="43"/>
       <c r="C276" s="43"/>
       <c r="D276" s="43"/>
@@ -24061,7 +24087,7 @@
       <c r="AE276" s="43"/>
       <c r="AF276" s="43"/>
     </row>
-    <row r="277" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B277" s="43"/>
       <c r="C277" s="43"/>
       <c r="D277" s="43"/>
@@ -24094,7 +24120,7 @@
       <c r="AE277" s="43"/>
       <c r="AF277" s="43"/>
     </row>
-    <row r="278" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B278" s="43"/>
       <c r="C278" s="43"/>
       <c r="D278" s="43"/>
@@ -24127,7 +24153,7 @@
       <c r="AE278" s="43"/>
       <c r="AF278" s="43"/>
     </row>
-    <row r="279" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B279" s="43"/>
       <c r="C279" s="43"/>
       <c r="D279" s="43"/>
@@ -24160,7 +24186,7 @@
       <c r="AE279" s="43"/>
       <c r="AF279" s="43"/>
     </row>
-    <row r="280" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B280" s="43"/>
       <c r="C280" s="43"/>
       <c r="D280" s="43"/>
@@ -24193,7 +24219,7 @@
       <c r="AE280" s="43"/>
       <c r="AF280" s="43"/>
     </row>
-    <row r="281" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B281" s="43"/>
       <c r="C281" s="43"/>
       <c r="D281" s="43"/>
@@ -24226,7 +24252,7 @@
       <c r="AE281" s="43"/>
       <c r="AF281" s="43"/>
     </row>
-    <row r="282" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B282" s="43"/>
       <c r="C282" s="43"/>
       <c r="D282" s="43"/>
@@ -24259,7 +24285,7 @@
       <c r="AE282" s="43"/>
       <c r="AF282" s="43"/>
     </row>
-    <row r="283" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B283" s="43"/>
       <c r="C283" s="43"/>
       <c r="D283" s="43"/>
@@ -24292,7 +24318,7 @@
       <c r="AE283" s="43"/>
       <c r="AF283" s="43"/>
     </row>
-    <row r="284" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B284" s="43"/>
       <c r="C284" s="43"/>
       <c r="D284" s="43"/>
@@ -24325,7 +24351,7 @@
       <c r="AE284" s="43"/>
       <c r="AF284" s="43"/>
     </row>
-    <row r="285" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B285" s="43"/>
       <c r="C285" s="43"/>
       <c r="D285" s="43"/>
@@ -24358,7 +24384,7 @@
       <c r="AE285" s="43"/>
       <c r="AF285" s="43"/>
     </row>
-    <row r="286" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B286" s="43"/>
       <c r="C286" s="43"/>
       <c r="D286" s="43"/>
@@ -24391,7 +24417,7 @@
       <c r="AE286" s="43"/>
       <c r="AF286" s="43"/>
     </row>
-    <row r="287" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B287" s="43"/>
       <c r="C287" s="43"/>
       <c r="D287" s="43"/>
@@ -24424,7 +24450,7 @@
       <c r="AE287" s="43"/>
       <c r="AF287" s="43"/>
     </row>
-    <row r="288" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B288" s="43"/>
       <c r="C288" s="43"/>
       <c r="D288" s="43"/>
@@ -24457,7 +24483,7 @@
       <c r="AE288" s="43"/>
       <c r="AF288" s="43"/>
     </row>
-    <row r="289" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B289" s="43"/>
       <c r="C289" s="43"/>
       <c r="D289" s="43"/>
@@ -24490,7 +24516,7 @@
       <c r="AE289" s="43"/>
       <c r="AF289" s="43"/>
     </row>
-    <row r="290" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B290" s="43"/>
       <c r="C290" s="43"/>
       <c r="D290" s="43"/>
@@ -24523,7 +24549,7 @@
       <c r="AE290" s="43"/>
       <c r="AF290" s="43"/>
     </row>
-    <row r="291" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B291" s="43"/>
       <c r="C291" s="43"/>
       <c r="D291" s="43"/>
@@ -24556,7 +24582,7 @@
       <c r="AE291" s="43"/>
       <c r="AF291" s="43"/>
     </row>
-    <row r="292" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B292" s="43"/>
       <c r="C292" s="43"/>
       <c r="D292" s="43"/>
@@ -24589,7 +24615,7 @@
       <c r="AE292" s="43"/>
       <c r="AF292" s="43"/>
     </row>
-    <row r="293" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B293" s="43"/>
       <c r="C293" s="43"/>
       <c r="D293" s="43"/>
@@ -24622,7 +24648,7 @@
       <c r="AE293" s="43"/>
       <c r="AF293" s="43"/>
     </row>
-    <row r="294" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B294" s="43"/>
       <c r="C294" s="43"/>
       <c r="D294" s="43"/>
@@ -24655,7 +24681,7 @@
       <c r="AE294" s="43"/>
       <c r="AF294" s="43"/>
     </row>
-    <row r="295" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B295" s="43"/>
       <c r="C295" s="43"/>
       <c r="D295" s="43"/>
@@ -24688,7 +24714,7 @@
       <c r="AE295" s="43"/>
       <c r="AF295" s="43"/>
     </row>
-    <row r="296" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B296" s="43"/>
       <c r="C296" s="43"/>
       <c r="D296" s="43"/>
@@ -24721,7 +24747,7 @@
       <c r="AE296" s="43"/>
       <c r="AF296" s="43"/>
     </row>
-    <row r="297" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B297" s="43"/>
       <c r="C297" s="43"/>
       <c r="D297" s="43"/>
@@ -24754,7 +24780,7 @@
       <c r="AE297" s="43"/>
       <c r="AF297" s="43"/>
     </row>
-    <row r="298" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B298" s="43"/>
       <c r="C298" s="43"/>
       <c r="D298" s="43"/>
@@ -24787,7 +24813,7 @@
       <c r="AE298" s="43"/>
       <c r="AF298" s="43"/>
     </row>
-    <row r="299" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B299" s="43"/>
       <c r="C299" s="43"/>
       <c r="D299" s="43"/>
@@ -24820,7 +24846,7 @@
       <c r="AE299" s="43"/>
       <c r="AF299" s="43"/>
     </row>
-    <row r="300" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B300" s="43"/>
       <c r="C300" s="43"/>
       <c r="D300" s="43"/>
@@ -24853,7 +24879,7 @@
       <c r="AE300" s="43"/>
       <c r="AF300" s="43"/>
     </row>
-    <row r="301" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B301" s="43"/>
       <c r="C301" s="43"/>
       <c r="D301" s="43"/>
@@ -24886,7 +24912,7 @@
       <c r="AE301" s="43"/>
       <c r="AF301" s="43"/>
     </row>
-    <row r="302" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B302" s="43"/>
       <c r="C302" s="43"/>
       <c r="D302" s="43"/>
@@ -24919,7 +24945,7 @@
       <c r="AE302" s="43"/>
       <c r="AF302" s="43"/>
     </row>
-    <row r="303" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
       <c r="D303" s="43"/>
@@ -24952,7 +24978,7 @@
       <c r="AE303" s="43"/>
       <c r="AF303" s="43"/>
     </row>
-    <row r="304" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B304" s="43"/>
       <c r="C304" s="43"/>
       <c r="D304" s="43"/>
@@ -24985,7 +25011,7 @@
       <c r="AE304" s="43"/>
       <c r="AF304" s="43"/>
     </row>
-    <row r="305" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B305" s="43"/>
       <c r="C305" s="43"/>
       <c r="D305" s="43"/>
@@ -25018,7 +25044,7 @@
       <c r="AE305" s="43"/>
       <c r="AF305" s="43"/>
     </row>
-    <row r="306" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B306" s="43"/>
       <c r="C306" s="43"/>
       <c r="D306" s="43"/>
@@ -25051,7 +25077,7 @@
       <c r="AE306" s="43"/>
       <c r="AF306" s="43"/>
     </row>
-    <row r="307" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B307" s="43"/>
       <c r="C307" s="43"/>
       <c r="D307" s="43"/>
@@ -25084,7 +25110,7 @@
       <c r="AE307" s="43"/>
       <c r="AF307" s="43"/>
     </row>
-    <row r="308" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
       <c r="D308" s="43"/>
@@ -25117,7 +25143,7 @@
       <c r="AE308" s="43"/>
       <c r="AF308" s="43"/>
     </row>
-    <row r="309" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B309" s="43"/>
       <c r="C309" s="43"/>
       <c r="D309" s="43"/>
@@ -25150,7 +25176,7 @@
       <c r="AE309" s="43"/>
       <c r="AF309" s="43"/>
     </row>
-    <row r="310" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B310" s="43"/>
       <c r="C310" s="43"/>
       <c r="D310" s="43"/>
@@ -25183,7 +25209,7 @@
       <c r="AE310" s="43"/>
       <c r="AF310" s="43"/>
     </row>
-    <row r="311" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B311" s="43"/>
       <c r="C311" s="43"/>
       <c r="D311" s="43"/>
@@ -25216,7 +25242,7 @@
       <c r="AE311" s="43"/>
       <c r="AF311" s="43"/>
     </row>
-    <row r="312" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B312" s="43"/>
       <c r="C312" s="43"/>
       <c r="D312" s="43"/>
@@ -25249,7 +25275,7 @@
       <c r="AE312" s="43"/>
       <c r="AF312" s="43"/>
     </row>
-    <row r="313" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B313" s="43"/>
       <c r="C313" s="43"/>
       <c r="D313" s="43"/>
@@ -25282,7 +25308,7 @@
       <c r="AE313" s="43"/>
       <c r="AF313" s="43"/>
     </row>
-    <row r="314" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B314" s="43"/>
       <c r="C314" s="43"/>
       <c r="D314" s="43"/>
@@ -25315,7 +25341,7 @@
       <c r="AE314" s="43"/>
       <c r="AF314" s="43"/>
     </row>
-    <row r="315" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B315" s="43"/>
       <c r="C315" s="43"/>
       <c r="D315" s="43"/>
@@ -25348,7 +25374,7 @@
       <c r="AE315" s="43"/>
       <c r="AF315" s="43"/>
     </row>
-    <row r="316" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B316" s="43"/>
       <c r="C316" s="43"/>
       <c r="D316" s="43"/>
@@ -25381,7 +25407,7 @@
       <c r="AE316" s="43"/>
       <c r="AF316" s="43"/>
     </row>
-    <row r="317" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B317" s="43"/>
       <c r="C317" s="43"/>
       <c r="D317" s="43"/>
@@ -25414,7 +25440,7 @@
       <c r="AE317" s="43"/>
       <c r="AF317" s="43"/>
     </row>
-    <row r="318" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B318" s="43"/>
       <c r="C318" s="43"/>
       <c r="D318" s="43"/>
@@ -25447,7 +25473,7 @@
       <c r="AE318" s="43"/>
       <c r="AF318" s="43"/>
     </row>
-    <row r="319" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B319" s="43"/>
       <c r="C319" s="43"/>
       <c r="D319" s="43"/>
@@ -25494,23 +25520,23 @@
       <selection pane="topRight" activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="6" max="17" width="16.21875" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
-    <col min="20" max="22" width="9.21875" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" customWidth="1"/>
-    <col min="32" max="32" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -25590,11 +25616,11 @@
       <c r="AG1" s="70"/>
       <c r="AH1" s="70"/>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="185">
+      <c r="B2" s="192">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -25649,9 +25675,9 @@
       <c r="AG2" s="71"/>
       <c r="AH2" s="71"/>
     </row>
-    <row r="3" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
-      <c r="B3" s="179"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="189"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="76" t="s">
         <v>144</v>
       </c>
@@ -25701,9 +25727,9 @@
       <c r="AG3" s="71"/>
       <c r="AH3" s="71"/>
     </row>
-    <row r="4" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
-      <c r="B4" s="179"/>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="189"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="76" t="s">
         <v>145</v>
       </c>
@@ -25753,9 +25779,9 @@
       <c r="AG4" s="71"/>
       <c r="AH4" s="71"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
-      <c r="B5" s="184"/>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="189"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="76" t="s">
         <v>146</v>
       </c>
@@ -25805,9 +25831,9 @@
       <c r="AG5" s="71"/>
       <c r="AH5" s="71"/>
     </row>
-    <row r="6" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="179">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="189"/>
+      <c r="B6" s="186">
         <v>2</v>
       </c>
       <c r="C6" s="76" t="s">
@@ -25861,9 +25887,9 @@
       <c r="AG6" s="71"/>
       <c r="AH6" s="71"/>
     </row>
-    <row r="7" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
-      <c r="B7" s="179"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="189"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
@@ -25913,9 +25939,9 @@
       <c r="AG7" s="71"/>
       <c r="AH7" s="71"/>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="179"/>
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="189"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="76" t="s">
         <v>149</v>
       </c>
@@ -25964,9 +25990,9 @@
       <c r="AG8" s="71"/>
       <c r="AH8" s="71"/>
     </row>
-    <row r="9" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
-      <c r="B9" s="179"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="189"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="76" t="s">
         <v>150</v>
       </c>
@@ -26020,9 +26046,9 @@
       <c r="AG9" s="71"/>
       <c r="AH9" s="71"/>
     </row>
-    <row r="10" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="179">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="189"/>
+      <c r="B10" s="186">
         <v>3</v>
       </c>
       <c r="C10" s="76" t="s">
@@ -26079,9 +26105,9 @@
       <c r="AG10" s="71"/>
       <c r="AH10" s="71"/>
     </row>
-    <row r="11" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="179"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="189"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="76" t="s">
         <v>155</v>
       </c>
@@ -26135,9 +26161,9 @@
       <c r="AG11" s="71"/>
       <c r="AH11" s="71"/>
     </row>
-    <row r="12" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
-      <c r="B12" s="179"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="189"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="76" t="s">
         <v>157</v>
       </c>
@@ -26194,9 +26220,9 @@
       <c r="AG12" s="71"/>
       <c r="AH12" s="71"/>
     </row>
-    <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
-      <c r="B13" s="179"/>
+    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="189"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="76" t="s">
         <v>162</v>
       </c>
@@ -26261,9 +26287,9 @@
       <c r="AG13" s="87"/>
       <c r="AH13" s="71"/>
     </row>
-    <row r="14" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
-      <c r="B14" s="179">
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="189"/>
+      <c r="B14" s="186">
         <v>4</v>
       </c>
       <c r="C14" s="76" t="s">
@@ -26329,9 +26355,9 @@
       <c r="AG14" s="87"/>
       <c r="AH14" s="71"/>
     </row>
-    <row r="15" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
-      <c r="B15" s="179"/>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="189"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="76" t="s">
         <v>165</v>
       </c>
@@ -26393,9 +26419,9 @@
       <c r="AG15" s="87"/>
       <c r="AH15" s="71"/>
     </row>
-    <row r="16" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
-      <c r="B16" s="179"/>
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="189"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="76" t="s">
         <v>166</v>
       </c>
@@ -26457,9 +26483,9 @@
       <c r="AG16" s="87"/>
       <c r="AH16" s="71"/>
     </row>
-    <row r="17" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
-      <c r="B17" s="179"/>
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="189"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="76" t="s">
         <v>167</v>
       </c>
@@ -26521,9 +26547,9 @@
       <c r="AG17" s="87"/>
       <c r="AH17" s="71"/>
     </row>
-    <row r="18" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="179">
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="189"/>
+      <c r="B18" s="186">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
@@ -26589,9 +26615,9 @@
       <c r="AG18" s="87"/>
       <c r="AH18" s="71"/>
     </row>
-    <row r="19" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
-      <c r="B19" s="179"/>
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="189"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="76" t="s">
         <v>169</v>
       </c>
@@ -26654,9 +26680,9 @@
       <c r="AG19" s="87"/>
       <c r="AH19" s="71"/>
     </row>
-    <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
-      <c r="B20" s="179"/>
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="189"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="76" t="s">
         <v>170</v>
       </c>
@@ -26718,9 +26744,9 @@
       <c r="AG20" s="87"/>
       <c r="AH20" s="71"/>
     </row>
-    <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
-      <c r="B21" s="179"/>
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="189"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="76" t="s">
         <v>171</v>
       </c>
@@ -26782,9 +26808,9 @@
       </c>
       <c r="AG21" s="87"/>
     </row>
-    <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
-      <c r="B22" s="179">
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="189"/>
+      <c r="B22" s="186">
         <v>6</v>
       </c>
       <c r="C22" s="76" t="s">
@@ -26849,9 +26875,9 @@
       </c>
       <c r="AG22" s="87"/>
     </row>
-    <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
-      <c r="B23" s="179"/>
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="189"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="76" t="s">
         <v>173</v>
       </c>
@@ -26915,9 +26941,9 @@
       </c>
       <c r="AG23" s="87"/>
     </row>
-    <row r="24" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
-      <c r="B24" s="179"/>
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="189"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="76" t="s">
         <v>174</v>
       </c>
@@ -26977,9 +27003,9 @@
       </c>
       <c r="AG24" s="87"/>
     </row>
-    <row r="25" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
-      <c r="B25" s="179"/>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="189"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="76" t="s">
         <v>175</v>
       </c>
@@ -27036,9 +27062,9 @@
       </c>
       <c r="AG25" s="71"/>
     </row>
-    <row r="26" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
-      <c r="B26" s="179">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="189"/>
+      <c r="B26" s="186">
         <v>7</v>
       </c>
       <c r="C26" s="76" t="s">
@@ -27097,9 +27123,9 @@
       <c r="AF26" s="71"/>
       <c r="AG26" s="71"/>
     </row>
-    <row r="27" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
-      <c r="B27" s="179"/>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" s="189"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="76" t="s">
         <v>177</v>
       </c>
@@ -27154,9 +27180,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
-      <c r="B28" s="179"/>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="189"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="76" t="s">
         <v>179</v>
       </c>
@@ -27211,9 +27237,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
-      <c r="B29" s="179"/>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" s="189"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="76" t="s">
         <v>181</v>
       </c>
@@ -27269,9 +27295,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
-      <c r="B30" s="179">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" s="189"/>
+      <c r="B30" s="186">
         <v>8</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -27328,9 +27354,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
-      <c r="B31" s="179"/>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" s="189"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="76" t="s">
         <v>186</v>
       </c>
@@ -27384,9 +27410,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
-      <c r="B32" s="179"/>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="189"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="76" t="s">
         <v>188</v>
       </c>
@@ -27435,9 +27461,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
-      <c r="B33" s="179"/>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" s="189"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="76" t="s">
         <v>189</v>
       </c>
@@ -27482,9 +27508,9 @@
       <c r="Z33" s="71"/>
       <c r="AA33" s="71"/>
     </row>
-    <row r="34" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="182"/>
-      <c r="B34" s="179">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34" s="189"/>
+      <c r="B34" s="186">
         <v>9</v>
       </c>
       <c r="C34" s="76" t="s">
@@ -27529,9 +27555,9 @@
       <c r="Z34" s="71"/>
       <c r="AA34" s="71"/>
     </row>
-    <row r="35" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
-      <c r="B35" s="179"/>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" s="189"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="76" t="s">
         <v>191</v>
       </c>
@@ -27573,9 +27599,9 @@
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
     </row>
-    <row r="36" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
-      <c r="B36" s="179"/>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="189"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="76" t="s">
         <v>192</v>
       </c>
@@ -27619,9 +27645,9 @@
       </c>
       <c r="AA36" s="71"/>
     </row>
-    <row r="37" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
-      <c r="B37" s="179"/>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" s="189"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="76" t="s">
         <v>193</v>
       </c>
@@ -27663,9 +27689,9 @@
       <c r="Z37" s="71"/>
       <c r="AA37" s="71"/>
     </row>
-    <row r="38" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="182"/>
-      <c r="B38" s="179">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" s="189"/>
+      <c r="B38" s="186">
         <v>10</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -27712,9 +27738,9 @@
       <c r="AA38" s="71"/>
       <c r="AH38" s="71"/>
     </row>
-    <row r="39" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
-      <c r="B39" s="179"/>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" s="189"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="76" t="s">
         <v>195</v>
       </c>
@@ -27758,9 +27784,9 @@
       <c r="AA39" s="71"/>
       <c r="AH39" s="71"/>
     </row>
-    <row r="40" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="182"/>
-      <c r="B40" s="179"/>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40" s="189"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="76" t="s">
         <v>196</v>
       </c>
@@ -27803,9 +27829,9 @@
       <c r="AA40" s="71"/>
       <c r="AH40" s="71"/>
     </row>
-    <row r="41" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="182"/>
-      <c r="B41" s="179"/>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41" s="189"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="76" t="s">
         <v>197</v>
       </c>
@@ -27854,9 +27880,9 @@
       <c r="AG41" s="71"/>
       <c r="AH41" s="71"/>
     </row>
-    <row r="42" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
-      <c r="B42" s="179">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42" s="189"/>
+      <c r="B42" s="186">
         <v>11</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -27908,9 +27934,9 @@
       <c r="AG42" s="71"/>
       <c r="AH42" s="71"/>
     </row>
-    <row r="43" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
-      <c r="B43" s="179"/>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43" s="189"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="76" t="s">
         <v>199</v>
       </c>
@@ -27962,9 +27988,9 @@
       <c r="AG43" s="71"/>
       <c r="AH43" s="71"/>
     </row>
-    <row r="44" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
-      <c r="B44" s="179"/>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" s="189"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="76" t="s">
         <v>200</v>
       </c>
@@ -28013,9 +28039,9 @@
       <c r="AG44" s="71"/>
       <c r="AH44" s="71"/>
     </row>
-    <row r="45" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
-      <c r="B45" s="179"/>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" s="189"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="76" t="s">
         <v>201</v>
       </c>
@@ -28064,9 +28090,9 @@
       <c r="AG45" s="71"/>
       <c r="AH45" s="71"/>
     </row>
-    <row r="46" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
-      <c r="B46" s="179">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" s="189"/>
+      <c r="B46" s="186">
         <v>12</v>
       </c>
       <c r="C46" s="76" t="s">
@@ -28119,9 +28145,9 @@
       <c r="AG46" s="71"/>
       <c r="AH46" s="71"/>
     </row>
-    <row r="47" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
-      <c r="B47" s="179"/>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" s="189"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="76" t="s">
         <v>203</v>
       </c>
@@ -28170,9 +28196,9 @@
       <c r="AG47" s="71"/>
       <c r="AH47" s="71"/>
     </row>
-    <row r="48" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
-      <c r="B48" s="179"/>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" s="189"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="76" t="s">
         <v>204</v>
       </c>
@@ -28223,9 +28249,9 @@
       <c r="AG48" s="71"/>
       <c r="AH48" s="71"/>
     </row>
-    <row r="49" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
-      <c r="B49" s="179"/>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" s="189"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="76" t="s">
         <v>205</v>
       </c>
@@ -28274,9 +28300,9 @@
       <c r="AG49" s="71"/>
       <c r="AH49" s="71"/>
     </row>
-    <row r="50" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
-      <c r="B50" s="179">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" s="189"/>
+      <c r="B50" s="186">
         <v>13</v>
       </c>
       <c r="C50" s="76" t="s">
@@ -28329,9 +28355,9 @@
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
     </row>
-    <row r="51" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="182"/>
-      <c r="B51" s="179"/>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" s="189"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="76" t="s">
         <v>207</v>
       </c>
@@ -28380,9 +28406,9 @@
       <c r="AG51" s="71"/>
       <c r="AH51" s="71"/>
     </row>
-    <row r="52" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="182"/>
-      <c r="B52" s="179"/>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" s="189"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="76" t="s">
         <v>208</v>
       </c>
@@ -28430,9 +28456,9 @@
       <c r="AG52" s="71"/>
       <c r="AH52" s="71"/>
     </row>
-    <row r="53" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="182"/>
-      <c r="B53" s="179"/>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53" s="189"/>
+      <c r="B53" s="186"/>
       <c r="C53" s="76" t="s">
         <v>209</v>
       </c>
@@ -28481,9 +28507,9 @@
       <c r="AG53" s="71"/>
       <c r="AH53" s="71"/>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
-      <c r="B54" s="179">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="189"/>
+      <c r="B54" s="186">
         <v>14</v>
       </c>
       <c r="C54" s="76" t="s">
@@ -28536,9 +28562,9 @@
       <c r="AG54" s="71"/>
       <c r="AH54" s="71"/>
     </row>
-    <row r="55" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="182"/>
-      <c r="B55" s="179"/>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" s="189"/>
+      <c r="B55" s="186"/>
       <c r="C55" s="76" t="s">
         <v>211</v>
       </c>
@@ -28588,9 +28614,9 @@
       <c r="AG55" s="71"/>
       <c r="AH55" s="71"/>
     </row>
-    <row r="56" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
-      <c r="B56" s="179"/>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" s="189"/>
+      <c r="B56" s="186"/>
       <c r="C56" s="76" t="s">
         <v>212</v>
       </c>
@@ -28639,9 +28665,9 @@
       <c r="AG56" s="71"/>
       <c r="AH56" s="71"/>
     </row>
-    <row r="57" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="182"/>
-      <c r="B57" s="179"/>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" s="189"/>
+      <c r="B57" s="186"/>
       <c r="C57" s="76" t="s">
         <v>213</v>
       </c>
@@ -28691,9 +28717,9 @@
       <c r="AG57" s="71"/>
       <c r="AH57" s="71"/>
     </row>
-    <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="182"/>
-      <c r="B58" s="179">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" s="189"/>
+      <c r="B58" s="186">
         <v>15</v>
       </c>
       <c r="C58" s="76" t="s">
@@ -28747,9 +28773,9 @@
       <c r="AG58" s="71"/>
       <c r="AH58" s="71"/>
     </row>
-    <row r="59" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="182"/>
-      <c r="B59" s="179"/>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" s="189"/>
+      <c r="B59" s="186"/>
       <c r="C59" s="76" t="s">
         <v>215</v>
       </c>
@@ -28799,9 +28825,9 @@
       <c r="AG59" s="71"/>
       <c r="AH59" s="71"/>
     </row>
-    <row r="60" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="182"/>
-      <c r="B60" s="179"/>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" s="189"/>
+      <c r="B60" s="186"/>
       <c r="C60" s="76" t="s">
         <v>216</v>
       </c>
@@ -28851,9 +28877,9 @@
       <c r="AG60" s="71"/>
       <c r="AH60" s="71"/>
     </row>
-    <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="183"/>
-      <c r="B61" s="180"/>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" s="190"/>
+      <c r="B61" s="187"/>
       <c r="C61" s="78" t="s">
         <v>217</v>
       </c>
@@ -28903,11 +28929,11 @@
       <c r="AG61" s="71"/>
       <c r="AH61" s="71"/>
     </row>
-    <row r="62" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="181" t="s">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="184">
+      <c r="B62" s="191">
         <v>16</v>
       </c>
       <c r="C62" s="76" t="s">
@@ -28958,9 +28984,9 @@
       <c r="AG62" s="71"/>
       <c r="AH62" s="71"/>
     </row>
-    <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="182"/>
-      <c r="B63" s="179"/>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" s="189"/>
+      <c r="B63" s="186"/>
       <c r="C63" s="76" t="s">
         <v>219</v>
       </c>
@@ -29009,9 +29035,9 @@
       <c r="AG63" s="71"/>
       <c r="AH63" s="71"/>
     </row>
-    <row r="64" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="182"/>
-      <c r="B64" s="179"/>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" s="189"/>
+      <c r="B64" s="186"/>
       <c r="C64" s="76" t="s">
         <v>220</v>
       </c>
@@ -29060,9 +29086,9 @@
       <c r="AG64" s="71"/>
       <c r="AH64" s="71"/>
     </row>
-    <row r="65" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="182"/>
-      <c r="B65" s="179"/>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65" s="189"/>
+      <c r="B65" s="186"/>
       <c r="C65" s="76" t="s">
         <v>221</v>
       </c>
@@ -29111,9 +29137,9 @@
       <c r="AG65" s="71"/>
       <c r="AH65" s="71"/>
     </row>
-    <row r="66" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="182"/>
-      <c r="B66" s="179">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" s="189"/>
+      <c r="B66" s="186">
         <v>17</v>
       </c>
       <c r="C66" s="76" t="s">
@@ -29164,9 +29190,9 @@
       <c r="AG66" s="71"/>
       <c r="AH66" s="71"/>
     </row>
-    <row r="67" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="182"/>
-      <c r="B67" s="179"/>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67" s="189"/>
+      <c r="B67" s="186"/>
       <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
@@ -29215,9 +29241,9 @@
       <c r="AG67" s="71"/>
       <c r="AH67" s="71"/>
     </row>
-    <row r="68" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="182"/>
-      <c r="B68" s="179"/>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68" s="189"/>
+      <c r="B68" s="186"/>
       <c r="C68" s="76" t="s">
         <v>224</v>
       </c>
@@ -29266,9 +29292,9 @@
       <c r="AG68" s="71"/>
       <c r="AH68" s="71"/>
     </row>
-    <row r="69" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="182"/>
-      <c r="B69" s="179"/>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A69" s="189"/>
+      <c r="B69" s="186"/>
       <c r="C69" s="76" t="s">
         <v>225</v>
       </c>
@@ -29317,9 +29343,9 @@
       <c r="AG69" s="71"/>
       <c r="AH69" s="71"/>
     </row>
-    <row r="70" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="182"/>
-      <c r="B70" s="179">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A70" s="189"/>
+      <c r="B70" s="186">
         <v>18</v>
       </c>
       <c r="C70" s="76" t="s">
@@ -29370,9 +29396,9 @@
       <c r="AG70" s="71"/>
       <c r="AH70" s="71"/>
     </row>
-    <row r="71" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="182"/>
-      <c r="B71" s="179"/>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A71" s="189"/>
+      <c r="B71" s="186"/>
       <c r="C71" s="76" t="s">
         <v>227</v>
       </c>
@@ -29421,9 +29447,9 @@
       <c r="AG71" s="71"/>
       <c r="AH71" s="71"/>
     </row>
-    <row r="72" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="182"/>
-      <c r="B72" s="179"/>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A72" s="189"/>
+      <c r="B72" s="186"/>
       <c r="C72" s="76" t="s">
         <v>228</v>
       </c>
@@ -29472,9 +29498,9 @@
       <c r="AG72" s="71"/>
       <c r="AH72" s="71"/>
     </row>
-    <row r="73" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="182"/>
-      <c r="B73" s="179"/>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A73" s="189"/>
+      <c r="B73" s="186"/>
       <c r="C73" s="76" t="s">
         <v>229</v>
       </c>
@@ -29523,9 +29549,9 @@
       <c r="AG73" s="71"/>
       <c r="AH73" s="71"/>
     </row>
-    <row r="74" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="182"/>
-      <c r="B74" s="179">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A74" s="189"/>
+      <c r="B74" s="186">
         <v>19</v>
       </c>
       <c r="C74" s="76" t="s">
@@ -29576,9 +29602,9 @@
       <c r="AG74" s="71"/>
       <c r="AH74" s="71"/>
     </row>
-    <row r="75" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="182"/>
-      <c r="B75" s="179"/>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A75" s="189"/>
+      <c r="B75" s="186"/>
       <c r="C75" s="76" t="s">
         <v>231</v>
       </c>
@@ -29627,9 +29653,9 @@
       <c r="AG75" s="71"/>
       <c r="AH75" s="71"/>
     </row>
-    <row r="76" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="182"/>
-      <c r="B76" s="179"/>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A76" s="189"/>
+      <c r="B76" s="186"/>
       <c r="C76" s="76" t="s">
         <v>232</v>
       </c>
@@ -29678,9 +29704,9 @@
       <c r="AG76" s="71"/>
       <c r="AH76" s="71"/>
     </row>
-    <row r="77" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="183"/>
-      <c r="B77" s="180"/>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A77" s="190"/>
+      <c r="B77" s="187"/>
       <c r="C77" s="78" t="s">
         <v>233</v>
       </c>
@@ -29729,7 +29755,7 @@
       <c r="AG77" s="71"/>
       <c r="AH77" s="71"/>
     </row>
-    <row r="78" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -29813,7 +29839,7 @@
       <c r="AG78" s="71"/>
       <c r="AH78" s="71"/>
     </row>
-    <row r="79" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -29864,13 +29890,13 @@
       <c r="AG79" s="71"/>
       <c r="AH79" s="71"/>
     </row>
-    <row r="80" spans="1:34" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
-      <c r="C80" s="188" t="s">
+      <c r="C80" s="182" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="189"/>
+      <c r="D80" s="183"/>
       <c r="E80" s="75">
         <v>60</v>
       </c>
@@ -29906,13 +29932,13 @@
       <c r="AG80" s="71"/>
       <c r="AH80" s="71"/>
     </row>
-    <row r="81" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
-      <c r="C81" s="190" t="s">
+      <c r="C81" s="184" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="191"/>
+      <c r="D81" s="185"/>
       <c r="E81" s="77">
         <v>322.5</v>
       </c>
@@ -29946,13 +29972,13 @@
       <c r="AG81" s="71"/>
       <c r="AH81" s="71"/>
     </row>
-    <row r="82" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
-      <c r="C82" s="190" t="s">
+      <c r="C82" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="191"/>
+      <c r="D82" s="185"/>
       <c r="E82" s="77">
         <v>35</v>
       </c>
@@ -29986,13 +30012,13 @@
       <c r="AG82" s="71"/>
       <c r="AH82" s="71"/>
     </row>
-    <row r="83" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
-      <c r="C83" s="190" t="s">
+      <c r="C83" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="191"/>
+      <c r="D83" s="185"/>
       <c r="E83" s="77">
         <v>287</v>
       </c>
@@ -30026,13 +30052,13 @@
       <c r="AG83" s="71"/>
       <c r="AH83" s="71"/>
     </row>
-    <row r="84" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
-      <c r="C84" s="190" t="s">
+      <c r="C84" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="191"/>
+      <c r="D84" s="185"/>
       <c r="E84" s="77">
         <v>60</v>
       </c>
@@ -30066,13 +30092,13 @@
       <c r="AG84" s="71"/>
       <c r="AH84" s="71"/>
     </row>
-    <row r="85" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
-      <c r="C85" s="186" t="s">
+      <c r="C85" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="187"/>
+      <c r="D85" s="181"/>
       <c r="E85" s="79">
         <f>Y79</f>
         <v>483</v>
@@ -30102,7 +30128,7 @@
       <c r="AG85" s="71"/>
       <c r="AH85" s="71"/>
     </row>
-    <row r="86" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -30140,17 +30166,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -30167,6 +30182,17 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30181,20 +30207,20 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -30205,7 +30231,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -30216,7 +30242,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -30228,7 +30254,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -30240,7 +30266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -30251,7 +30277,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>249</v>
       </c>
@@ -30263,12 +30289,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>252</v>
       </c>
@@ -30280,8 +30306,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>253</v>
       </c>
@@ -30290,7 +30316,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>254</v>
       </c>
@@ -30309,16 +30335,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="110.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="9.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -30339,7 +30365,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>255</v>
@@ -30362,7 +30388,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="12" t="s">
         <v>256</v>
@@ -30385,7 +30411,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="19" t="s">
         <v>257</v>
@@ -30408,30 +30434,30 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="13" t="s">
         <v>259</v>
@@ -30454,7 +30480,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -30475,7 +30501,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -30496,31 +30522,31 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="195" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="196" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="195"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="195"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="195"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="195"/>
-    </row>
-    <row r="21" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="196"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="196"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="196"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="196"/>
+    </row>
+    <row r="21" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R21" s="18"/>
     </row>
   </sheetData>
@@ -30765,15 +30791,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="b1023a92-dbec-45a4-bb83-a4551f519714">
@@ -30791,6 +30808,15 @@
     <_activity xmlns="bad96bf2-a978-419b-857e-f041088cbe29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30813,14 +30839,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -30837,6 +30855,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{17151eb3-00ab-470c-b25c-644c7691e891}" enabled="1" method="Privileged" siteId="{3ded2960-214a-46ff-8cf4-611f125e2398}" contentBits="0" removed="0"/>

--- a/Lee Winstanley OTJ Tracker DE L5.xlsx
+++ b/Lee Winstanley OTJ Tracker DE L5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewinstanley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96350A-D462-2B44-B36A-429D8911134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB453D-8926-CC40-BBEC-2E71B7677844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17080" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -2213,11 +2213,44 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2227,6 +2260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2267,60 +2306,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2342,6 +2327,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2352,9 +2355,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2839,12 +2839,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="170"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="162"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="2"/>
@@ -2875,14 +2875,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="54"/>
@@ -2980,14 +2980,14 @@
       <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="167"/>
+      <c r="H5" s="180"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3037,7 +3037,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="167"/>
+      <c r="H6" s="180"/>
       <c r="I6" s="2"/>
       <c r="J6" s="145"/>
       <c r="K6" s="145"/>
@@ -3081,7 +3081,7 @@
       <c r="C7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="197">
+      <c r="D7" s="150">
         <v>45708</v>
       </c>
       <c r="E7" s="58">
@@ -3094,7 +3094,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H7" s="167"/>
+      <c r="H7" s="180"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3138,7 +3138,7 @@
       <c r="C8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="197">
+      <c r="D8" s="150">
         <v>45743</v>
       </c>
       <c r="E8" s="58">
@@ -3151,7 +3151,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="167"/>
+      <c r="H8" s="180"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3192,8 +3192,12 @@
       <c r="B9" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="83">
+        <v>45798</v>
+      </c>
       <c r="E9" s="58">
         <v>27</v>
       </c>
@@ -3202,9 +3206,9 @@
       </c>
       <c r="G9" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="167"/>
+        <v>54</v>
+      </c>
+      <c r="H9" s="180"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3257,7 +3261,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="167"/>
+      <c r="H10" s="180"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3310,7 +3314,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="167"/>
+      <c r="H11" s="180"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3363,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="167"/>
+      <c r="H12" s="180"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3416,7 +3420,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="167"/>
+      <c r="H13" s="180"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3469,7 +3473,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="167"/>
+      <c r="H14" s="180"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3522,7 +3526,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="167"/>
+      <c r="H15" s="180"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3575,7 +3579,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="180"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3628,14 +3632,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="167"/>
+      <c r="H17" s="180"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="154"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="165"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3681,7 +3685,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="167"/>
+      <c r="H18" s="180"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3734,9 +3738,9 @@
       </c>
       <c r="G19" s="144">
         <f>SUM(G6:G18)</f>
-        <v>60</v>
-      </c>
-      <c r="H19" s="167"/>
+        <v>114</v>
+      </c>
+      <c r="H19" s="180"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3876,24 +3880,28 @@
       <c r="B22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="83">
+        <v>45797</v>
+      </c>
       <c r="E22" s="58">
         <v>24</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="58">
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="175"/>
+        <v>24</v>
+      </c>
+      <c r="H22" s="152"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="154"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="165"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3937,7 +3945,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="175"/>
+      <c r="H23" s="152"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3988,7 +3996,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="175"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4039,7 +4047,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="175"/>
+      <c r="H25" s="152"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4090,7 +4098,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="175"/>
+      <c r="H26" s="152"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4134,7 +4142,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
-      <c r="H27" s="175"/>
+      <c r="H27" s="152"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4187,9 +4195,9 @@
       </c>
       <c r="G28" s="60">
         <f>SUM(G22:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="175"/>
+        <v>24</v>
+      </c>
+      <c r="H28" s="152"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4227,20 +4235,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="163"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="176"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="154"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="165"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4278,12 +4286,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="173"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4314,13 +4322,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4500,23 +4508,23 @@
       <c r="D35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="172" t="s">
+      <c r="E35" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="172"/>
+      <c r="F35" s="157"/>
       <c r="G35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="176" t="s">
+      <c r="H35" s="153" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="154"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="165"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4556,14 +4564,14 @@
       <c r="D36" s="64">
         <v>45701</v>
       </c>
-      <c r="E36" s="173" t="s">
+      <c r="E36" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="174"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="108">
         <v>7</v>
       </c>
-      <c r="H36" s="177"/>
+      <c r="H36" s="154"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4604,17 +4612,17 @@
       <c r="B37" s="84"/>
       <c r="C37" s="80"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="174"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="159"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="177"/>
+      <c r="H37" s="154"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="157"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="170"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4648,10 +4656,10 @@
       <c r="B38" s="84"/>
       <c r="C38" s="80"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="177"/>
+      <c r="H38" s="154"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4692,17 +4700,17 @@
       <c r="B39" s="92"/>
       <c r="C39" s="80"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="177"/>
+      <c r="H39" s="154"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="154"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="165"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4736,10 +4744,10 @@
       <c r="B40" s="84"/>
       <c r="C40" s="80"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="177"/>
+      <c r="H40" s="154"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4780,10 +4788,10 @@
       <c r="B41" s="84"/>
       <c r="C41" s="80"/>
       <c r="D41" s="83"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="177"/>
+      <c r="H41" s="154"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4824,10 +4832,10 @@
       <c r="B42" s="84"/>
       <c r="C42" s="80"/>
       <c r="D42" s="83"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="177"/>
+      <c r="H42" s="154"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4868,10 +4876,10 @@
       <c r="B43" s="84"/>
       <c r="C43" s="80"/>
       <c r="D43" s="83"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="177"/>
+      <c r="H43" s="154"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4912,9 +4920,9 @@
       <c r="B44" s="84"/>
       <c r="C44" s="80"/>
       <c r="D44" s="83"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="H44" s="177"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="H44" s="154"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4955,10 +4963,10 @@
       <c r="B45" s="84"/>
       <c r="C45" s="80"/>
       <c r="D45" s="83"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
       <c r="G45" s="108"/>
-      <c r="H45" s="177"/>
+      <c r="H45" s="154"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4999,10 +5007,10 @@
       <c r="B46" s="84"/>
       <c r="C46" s="80"/>
       <c r="D46" s="83"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
       <c r="G46" s="108"/>
-      <c r="H46" s="177"/>
+      <c r="H46" s="154"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5043,10 +5051,10 @@
       <c r="B47" s="84"/>
       <c r="C47" s="80"/>
       <c r="D47" s="83"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
       <c r="G47" s="108"/>
-      <c r="H47" s="177"/>
+      <c r="H47" s="154"/>
       <c r="I47" s="43"/>
       <c r="J47" s="37"/>
       <c r="K47" s="2"/>
@@ -5087,10 +5095,10 @@
       <c r="B48" s="84"/>
       <c r="C48" s="80"/>
       <c r="D48" s="83"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
       <c r="G48" s="63"/>
-      <c r="H48" s="177"/>
+      <c r="H48" s="154"/>
       <c r="I48" s="43"/>
       <c r="J48" s="37"/>
       <c r="K48" s="2"/>
@@ -5131,10 +5139,10 @@
       <c r="B49" s="85"/>
       <c r="C49" s="80"/>
       <c r="D49" s="58"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
       <c r="G49" s="63"/>
-      <c r="H49" s="177"/>
+      <c r="H49" s="154"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5175,10 +5183,10 @@
       <c r="B50" s="81"/>
       <c r="C50" s="80"/>
       <c r="D50" s="58"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
       <c r="G50" s="63"/>
-      <c r="H50" s="177"/>
+      <c r="H50" s="154"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5219,10 +5227,10 @@
       <c r="B51" s="81"/>
       <c r="C51" s="80"/>
       <c r="D51" s="58"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
       <c r="G51" s="63"/>
-      <c r="H51" s="177"/>
+      <c r="H51" s="154"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5263,10 +5271,10 @@
       <c r="B52" s="81"/>
       <c r="C52" s="80"/>
       <c r="D52" s="58"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
       <c r="G52" s="63"/>
-      <c r="H52" s="177"/>
+      <c r="H52" s="154"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5307,10 +5315,10 @@
       <c r="B53" s="81"/>
       <c r="C53" s="80"/>
       <c r="D53" s="58"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
       <c r="G53" s="63"/>
-      <c r="H53" s="177"/>
+      <c r="H53" s="154"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5351,10 +5359,10 @@
       <c r="B54" s="81"/>
       <c r="C54" s="80"/>
       <c r="D54" s="58"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
       <c r="G54" s="63"/>
-      <c r="H54" s="177"/>
+      <c r="H54" s="154"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5395,10 +5403,10 @@
       <c r="B55" s="58"/>
       <c r="C55" s="80"/>
       <c r="D55" s="58"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="177"/>
+      <c r="H55" s="154"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5439,10 +5447,10 @@
       <c r="B56" s="58"/>
       <c r="C56" s="80"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
       <c r="G56" s="63"/>
-      <c r="H56" s="177"/>
+      <c r="H56" s="154"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5483,10 +5491,10 @@
       <c r="B57" s="58"/>
       <c r="C57" s="80"/>
       <c r="D57" s="58"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
       <c r="G57" s="63"/>
-      <c r="H57" s="177"/>
+      <c r="H57" s="154"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5527,10 +5535,10 @@
       <c r="B58" s="58"/>
       <c r="C58" s="80"/>
       <c r="D58" s="58"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
       <c r="G58" s="63"/>
-      <c r="H58" s="177"/>
+      <c r="H58" s="154"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5571,10 +5579,10 @@
       <c r="B59" s="58"/>
       <c r="C59" s="80"/>
       <c r="D59" s="58"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
       <c r="G59" s="63"/>
-      <c r="H59" s="177"/>
+      <c r="H59" s="154"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5615,10 +5623,10 @@
       <c r="B60" s="58"/>
       <c r="C60" s="80"/>
       <c r="D60" s="58"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
       <c r="G60" s="63"/>
-      <c r="H60" s="177"/>
+      <c r="H60" s="154"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5661,13 +5669,13 @@
       </c>
       <c r="C61" s="132"/>
       <c r="D61" s="133"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="179"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
       <c r="G61" s="36">
         <f>SUM(G36:G60)</f>
         <v>7</v>
       </c>
-      <c r="H61" s="178"/>
+      <c r="H61" s="155"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5758,7 +5766,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="51">
         <f>G61+G19+G28+G62</f>
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="H63" s="44"/>
       <c r="I63" s="2"/>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="C67" s="58">
         <f>G63</f>
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -5985,7 +5993,7 @@
       </c>
       <c r="C68" s="60">
         <f>C66-C67</f>
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -11868,6 +11876,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -11884,32 +11918,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -11929,7 +11937,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C33 C9:C20</xm:sqref>
+          <xm:sqref>C33 C10:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -25617,10 +25625,10 @@
       <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="183" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="192">
+      <c r="B2" s="187">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -25676,8 +25684,8 @@
       <c r="AH2" s="71"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="189"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="76" t="s">
         <v>144</v>
       </c>
@@ -25728,8 +25736,8 @@
       <c r="AH3" s="71"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="189"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="76" t="s">
         <v>145</v>
       </c>
@@ -25780,8 +25788,8 @@
       <c r="AH4" s="71"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="189"/>
-      <c r="B5" s="191"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="76" t="s">
         <v>146</v>
       </c>
@@ -25832,8 +25840,8 @@
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="189"/>
-      <c r="B6" s="186">
+      <c r="A6" s="184"/>
+      <c r="B6" s="181">
         <v>2</v>
       </c>
       <c r="C6" s="76" t="s">
@@ -25888,8 +25896,8 @@
       <c r="AH6" s="71"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="189"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
@@ -25940,8 +25948,8 @@
       <c r="AH7" s="71"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="189"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="76" t="s">
         <v>149</v>
       </c>
@@ -25991,8 +25999,8 @@
       <c r="AH8" s="71"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="189"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="76" t="s">
         <v>150</v>
       </c>
@@ -26047,8 +26055,8 @@
       <c r="AH9" s="71"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="189"/>
-      <c r="B10" s="186">
+      <c r="A10" s="184"/>
+      <c r="B10" s="181">
         <v>3</v>
       </c>
       <c r="C10" s="76" t="s">
@@ -26106,8 +26114,8 @@
       <c r="AH10" s="71"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="189"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="184"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="76" t="s">
         <v>155</v>
       </c>
@@ -26162,8 +26170,8 @@
       <c r="AH11" s="71"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="189"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="76" t="s">
         <v>157</v>
       </c>
@@ -26221,8 +26229,8 @@
       <c r="AH12" s="71"/>
     </row>
     <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="189"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="76" t="s">
         <v>162</v>
       </c>
@@ -26288,8 +26296,8 @@
       <c r="AH13" s="71"/>
     </row>
     <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="189"/>
-      <c r="B14" s="186">
+      <c r="A14" s="184"/>
+      <c r="B14" s="181">
         <v>4</v>
       </c>
       <c r="C14" s="76" t="s">
@@ -26356,8 +26364,8 @@
       <c r="AH14" s="71"/>
     </row>
     <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="189"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="76" t="s">
         <v>165</v>
       </c>
@@ -26420,8 +26428,8 @@
       <c r="AH15" s="71"/>
     </row>
     <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="189"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="76" t="s">
         <v>166</v>
       </c>
@@ -26484,8 +26492,8 @@
       <c r="AH16" s="71"/>
     </row>
     <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="189"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="76" t="s">
         <v>167</v>
       </c>
@@ -26548,8 +26556,8 @@
       <c r="AH17" s="71"/>
     </row>
     <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="189"/>
-      <c r="B18" s="186">
+      <c r="A18" s="184"/>
+      <c r="B18" s="181">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
@@ -26616,8 +26624,8 @@
       <c r="AH18" s="71"/>
     </row>
     <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="189"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="76" t="s">
         <v>169</v>
       </c>
@@ -26681,8 +26689,8 @@
       <c r="AH19" s="71"/>
     </row>
     <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="189"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="76" t="s">
         <v>170</v>
       </c>
@@ -26745,8 +26753,8 @@
       <c r="AH20" s="71"/>
     </row>
     <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="189"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="184"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="76" t="s">
         <v>171</v>
       </c>
@@ -26809,8 +26817,8 @@
       <c r="AG21" s="87"/>
     </row>
     <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="189"/>
-      <c r="B22" s="186">
+      <c r="A22" s="184"/>
+      <c r="B22" s="181">
         <v>6</v>
       </c>
       <c r="C22" s="76" t="s">
@@ -26876,8 +26884,8 @@
       <c r="AG22" s="87"/>
     </row>
     <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="189"/>
-      <c r="B23" s="186"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="76" t="s">
         <v>173</v>
       </c>
@@ -26942,8 +26950,8 @@
       <c r="AG23" s="87"/>
     </row>
     <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="189"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="76" t="s">
         <v>174</v>
       </c>
@@ -27004,8 +27012,8 @@
       <c r="AG24" s="87"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="189"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="76" t="s">
         <v>175</v>
       </c>
@@ -27063,8 +27071,8 @@
       <c r="AG25" s="71"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="189"/>
-      <c r="B26" s="186">
+      <c r="A26" s="184"/>
+      <c r="B26" s="181">
         <v>7</v>
       </c>
       <c r="C26" s="76" t="s">
@@ -27124,8 +27132,8 @@
       <c r="AG26" s="71"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="189"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="76" t="s">
         <v>177</v>
       </c>
@@ -27181,8 +27189,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="189"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="76" t="s">
         <v>179</v>
       </c>
@@ -27238,8 +27246,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="189"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="76" t="s">
         <v>181</v>
       </c>
@@ -27296,8 +27304,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="189"/>
-      <c r="B30" s="186">
+      <c r="A30" s="184"/>
+      <c r="B30" s="181">
         <v>8</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -27355,8 +27363,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="189"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="184"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="76" t="s">
         <v>186</v>
       </c>
@@ -27411,8 +27419,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="189"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="76" t="s">
         <v>188</v>
       </c>
@@ -27462,8 +27470,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" s="189"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="76" t="s">
         <v>189</v>
       </c>
@@ -27509,8 +27517,8 @@
       <c r="AA33" s="71"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="189"/>
-      <c r="B34" s="186">
+      <c r="A34" s="184"/>
+      <c r="B34" s="181">
         <v>9</v>
       </c>
       <c r="C34" s="76" t="s">
@@ -27556,8 +27564,8 @@
       <c r="AA34" s="71"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="189"/>
-      <c r="B35" s="186"/>
+      <c r="A35" s="184"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="76" t="s">
         <v>191</v>
       </c>
@@ -27600,8 +27608,8 @@
       <c r="AA35" s="71"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" s="189"/>
-      <c r="B36" s="186"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="76" t="s">
         <v>192</v>
       </c>
@@ -27646,8 +27654,8 @@
       <c r="AA36" s="71"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="189"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="184"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="76" t="s">
         <v>193</v>
       </c>
@@ -27690,8 +27698,8 @@
       <c r="AA37" s="71"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="189"/>
-      <c r="B38" s="186">
+      <c r="A38" s="184"/>
+      <c r="B38" s="181">
         <v>10</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -27739,8 +27747,8 @@
       <c r="AH38" s="71"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="189"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="184"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="76" t="s">
         <v>195</v>
       </c>
@@ -27785,8 +27793,8 @@
       <c r="AH39" s="71"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="189"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="76" t="s">
         <v>196</v>
       </c>
@@ -27830,8 +27838,8 @@
       <c r="AH40" s="71"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A41" s="189"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="76" t="s">
         <v>197</v>
       </c>
@@ -27881,8 +27889,8 @@
       <c r="AH41" s="71"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="189"/>
-      <c r="B42" s="186">
+      <c r="A42" s="184"/>
+      <c r="B42" s="181">
         <v>11</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -27935,8 +27943,8 @@
       <c r="AH42" s="71"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="189"/>
-      <c r="B43" s="186"/>
+      <c r="A43" s="184"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="76" t="s">
         <v>199</v>
       </c>
@@ -27989,8 +27997,8 @@
       <c r="AH43" s="71"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A44" s="189"/>
-      <c r="B44" s="186"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="76" t="s">
         <v>200</v>
       </c>
@@ -28040,8 +28048,8 @@
       <c r="AH44" s="71"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="189"/>
-      <c r="B45" s="186"/>
+      <c r="A45" s="184"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="76" t="s">
         <v>201</v>
       </c>
@@ -28091,8 +28099,8 @@
       <c r="AH45" s="71"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A46" s="189"/>
-      <c r="B46" s="186">
+      <c r="A46" s="184"/>
+      <c r="B46" s="181">
         <v>12</v>
       </c>
       <c r="C46" s="76" t="s">
@@ -28146,8 +28154,8 @@
       <c r="AH46" s="71"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="189"/>
-      <c r="B47" s="186"/>
+      <c r="A47" s="184"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="76" t="s">
         <v>203</v>
       </c>
@@ -28197,8 +28205,8 @@
       <c r="AH47" s="71"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="189"/>
-      <c r="B48" s="186"/>
+      <c r="A48" s="184"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="76" t="s">
         <v>204</v>
       </c>
@@ -28250,8 +28258,8 @@
       <c r="AH48" s="71"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" s="189"/>
-      <c r="B49" s="186"/>
+      <c r="A49" s="184"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="76" t="s">
         <v>205</v>
       </c>
@@ -28301,8 +28309,8 @@
       <c r="AH49" s="71"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A50" s="189"/>
-      <c r="B50" s="186">
+      <c r="A50" s="184"/>
+      <c r="B50" s="181">
         <v>13</v>
       </c>
       <c r="C50" s="76" t="s">
@@ -28356,8 +28364,8 @@
       <c r="AH50" s="71"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="189"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="184"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="76" t="s">
         <v>207</v>
       </c>
@@ -28407,8 +28415,8 @@
       <c r="AH51" s="71"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="189"/>
-      <c r="B52" s="186"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="76" t="s">
         <v>208</v>
       </c>
@@ -28457,8 +28465,8 @@
       <c r="AH52" s="71"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="189"/>
-      <c r="B53" s="186"/>
+      <c r="A53" s="184"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="76" t="s">
         <v>209</v>
       </c>
@@ -28508,8 +28516,8 @@
       <c r="AH53" s="71"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="189"/>
-      <c r="B54" s="186">
+      <c r="A54" s="184"/>
+      <c r="B54" s="181">
         <v>14</v>
       </c>
       <c r="C54" s="76" t="s">
@@ -28563,8 +28571,8 @@
       <c r="AH54" s="71"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A55" s="189"/>
-      <c r="B55" s="186"/>
+      <c r="A55" s="184"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="76" t="s">
         <v>211</v>
       </c>
@@ -28615,8 +28623,8 @@
       <c r="AH55" s="71"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A56" s="189"/>
-      <c r="B56" s="186"/>
+      <c r="A56" s="184"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="76" t="s">
         <v>212</v>
       </c>
@@ -28666,8 +28674,8 @@
       <c r="AH56" s="71"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="189"/>
-      <c r="B57" s="186"/>
+      <c r="A57" s="184"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="76" t="s">
         <v>213</v>
       </c>
@@ -28718,8 +28726,8 @@
       <c r="AH57" s="71"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" s="189"/>
-      <c r="B58" s="186">
+      <c r="A58" s="184"/>
+      <c r="B58" s="181">
         <v>15</v>
       </c>
       <c r="C58" s="76" t="s">
@@ -28774,8 +28782,8 @@
       <c r="AH58" s="71"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="189"/>
-      <c r="B59" s="186"/>
+      <c r="A59" s="184"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="76" t="s">
         <v>215</v>
       </c>
@@ -28826,8 +28834,8 @@
       <c r="AH59" s="71"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="189"/>
-      <c r="B60" s="186"/>
+      <c r="A60" s="184"/>
+      <c r="B60" s="181"/>
       <c r="C60" s="76" t="s">
         <v>216</v>
       </c>
@@ -28878,8 +28886,8 @@
       <c r="AH60" s="71"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="190"/>
-      <c r="B61" s="187"/>
+      <c r="A61" s="185"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="78" t="s">
         <v>217</v>
       </c>
@@ -28930,10 +28938,10 @@
       <c r="AH61" s="71"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="188" t="s">
+      <c r="A62" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="191">
+      <c r="B62" s="186">
         <v>16</v>
       </c>
       <c r="C62" s="76" t="s">
@@ -28985,8 +28993,8 @@
       <c r="AH62" s="71"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A63" s="189"/>
-      <c r="B63" s="186"/>
+      <c r="A63" s="184"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="76" t="s">
         <v>219</v>
       </c>
@@ -29036,8 +29044,8 @@
       <c r="AH63" s="71"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="189"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="184"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="76" t="s">
         <v>220</v>
       </c>
@@ -29087,8 +29095,8 @@
       <c r="AH64" s="71"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" s="189"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="184"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="76" t="s">
         <v>221</v>
       </c>
@@ -29138,8 +29146,8 @@
       <c r="AH65" s="71"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="189"/>
-      <c r="B66" s="186">
+      <c r="A66" s="184"/>
+      <c r="B66" s="181">
         <v>17</v>
       </c>
       <c r="C66" s="76" t="s">
@@ -29191,8 +29199,8 @@
       <c r="AH66" s="71"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" s="189"/>
-      <c r="B67" s="186"/>
+      <c r="A67" s="184"/>
+      <c r="B67" s="181"/>
       <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
@@ -29242,8 +29250,8 @@
       <c r="AH67" s="71"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A68" s="189"/>
-      <c r="B68" s="186"/>
+      <c r="A68" s="184"/>
+      <c r="B68" s="181"/>
       <c r="C68" s="76" t="s">
         <v>224</v>
       </c>
@@ -29293,8 +29301,8 @@
       <c r="AH68" s="71"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="189"/>
-      <c r="B69" s="186"/>
+      <c r="A69" s="184"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="76" t="s">
         <v>225</v>
       </c>
@@ -29344,8 +29352,8 @@
       <c r="AH69" s="71"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="189"/>
-      <c r="B70" s="186">
+      <c r="A70" s="184"/>
+      <c r="B70" s="181">
         <v>18</v>
       </c>
       <c r="C70" s="76" t="s">
@@ -29397,8 +29405,8 @@
       <c r="AH70" s="71"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A71" s="189"/>
-      <c r="B71" s="186"/>
+      <c r="A71" s="184"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="76" t="s">
         <v>227</v>
       </c>
@@ -29448,8 +29456,8 @@
       <c r="AH71" s="71"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="189"/>
-      <c r="B72" s="186"/>
+      <c r="A72" s="184"/>
+      <c r="B72" s="181"/>
       <c r="C72" s="76" t="s">
         <v>228</v>
       </c>
@@ -29499,8 +29507,8 @@
       <c r="AH72" s="71"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A73" s="189"/>
-      <c r="B73" s="186"/>
+      <c r="A73" s="184"/>
+      <c r="B73" s="181"/>
       <c r="C73" s="76" t="s">
         <v>229</v>
       </c>
@@ -29550,8 +29558,8 @@
       <c r="AH73" s="71"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="189"/>
-      <c r="B74" s="186">
+      <c r="A74" s="184"/>
+      <c r="B74" s="181">
         <v>19</v>
       </c>
       <c r="C74" s="76" t="s">
@@ -29603,8 +29611,8 @@
       <c r="AH74" s="71"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="189"/>
-      <c r="B75" s="186"/>
+      <c r="A75" s="184"/>
+      <c r="B75" s="181"/>
       <c r="C75" s="76" t="s">
         <v>231</v>
       </c>
@@ -29654,8 +29662,8 @@
       <c r="AH75" s="71"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A76" s="189"/>
-      <c r="B76" s="186"/>
+      <c r="A76" s="184"/>
+      <c r="B76" s="181"/>
       <c r="C76" s="76" t="s">
         <v>232</v>
       </c>
@@ -29705,8 +29713,8 @@
       <c r="AH76" s="71"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A77" s="190"/>
-      <c r="B77" s="187"/>
+      <c r="A77" s="185"/>
+      <c r="B77" s="182"/>
       <c r="C77" s="78" t="s">
         <v>233</v>
       </c>
@@ -29893,10 +29901,10 @@
     <row r="80" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
-      <c r="C80" s="182" t="s">
+      <c r="C80" s="190" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="183"/>
+      <c r="D80" s="191"/>
       <c r="E80" s="75">
         <v>60</v>
       </c>
@@ -29935,10 +29943,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
-      <c r="C81" s="184" t="s">
+      <c r="C81" s="192" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="185"/>
+      <c r="D81" s="193"/>
       <c r="E81" s="77">
         <v>322.5</v>
       </c>
@@ -29975,10 +29983,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
-      <c r="C82" s="184" t="s">
+      <c r="C82" s="192" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="185"/>
+      <c r="D82" s="193"/>
       <c r="E82" s="77">
         <v>35</v>
       </c>
@@ -30015,10 +30023,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
-      <c r="C83" s="184" t="s">
+      <c r="C83" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="185"/>
+      <c r="D83" s="193"/>
       <c r="E83" s="77">
         <v>287</v>
       </c>
@@ -30055,10 +30063,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
-      <c r="C84" s="184" t="s">
+      <c r="C84" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="185"/>
+      <c r="D84" s="193"/>
       <c r="E84" s="77">
         <v>60</v>
       </c>
@@ -30095,10 +30103,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
-      <c r="C85" s="180" t="s">
+      <c r="C85" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="181"/>
+      <c r="D85" s="189"/>
       <c r="E85" s="79">
         <f>Y79</f>
         <v>483</v>
@@ -30166,6 +30174,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -30182,17 +30201,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30436,21 +30444,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="194" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="196"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -30530,21 +30538,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="197" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="196"/>
+      <c r="B11" s="197"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="196"/>
+      <c r="B12" s="197"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="196"/>
+      <c r="B13" s="197"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="196"/>
+      <c r="B14" s="197"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R21" s="18"/>
@@ -30564,6 +30572,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b1023a92-dbec-45a4-bb83-a4551f519714">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_activity xmlns="bad96bf2-a978-419b-857e-f041088cbe29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEE32E084D91FD4283E80A6FB1C1380B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54ea750e0a0f326e2111beccd9c87066">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bad96bf2-a978-419b-857e-f041088cbe29" xmlns:ns4="b1023a92-dbec-45a4-bb83-a4551f519714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="413a4c7486017379570c1da3f7b843fa" ns3:_="" ns4:_="">
     <xsd:import namespace="bad96bf2-a978-419b-857e-f041088cbe29"/>
@@ -30790,50 +30827,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b1023a92-dbec-45a4-bb83-a4551f519714">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_activity xmlns="bad96bf2-a978-419b-857e-f041088cbe29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2A4EB8-8E9D-424D-B827-F9A389FEA11F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bad96bf2-a978-419b-857e-f041088cbe29"/>
-    <ds:schemaRef ds:uri="b1023a92-dbec-45a4-bb83-a4551f519714"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30856,9 +30853,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2A4EB8-8E9D-424D-B827-F9A389FEA11F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bad96bf2-a978-419b-857e-f041088cbe29"/>
+    <ds:schemaRef ds:uri="b1023a92-dbec-45a4-bb83-a4551f519714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Lee Winstanley OTJ Tracker DE L5.xlsx
+++ b/Lee Winstanley OTJ Tracker DE L5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewinstanley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB453D-8926-CC40-BBEC-2E71B7677844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B37E58-5149-3F49-95A4-8C62DBB24D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="267">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -902,6 +902,15 @@
   </si>
   <si>
     <t>Agile ways of working. Discussiion on the future of A.I</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>GCP training</t>
+  </si>
+  <si>
+    <t>Fundemtals of Google cloud and its applications</t>
   </si>
 </sst>
 </file>
@@ -2216,41 +2225,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2260,12 +2239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2306,6 +2279,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2326,24 +2353,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2773,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2839,12 +2848,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="162"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="2"/>
@@ -2875,14 +2884,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="54"/>
@@ -2980,14 +2989,14 @@
       <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="180"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="165"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3037,7 +3046,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="180"/>
+      <c r="H6" s="168"/>
       <c r="I6" s="2"/>
       <c r="J6" s="145"/>
       <c r="K6" s="145"/>
@@ -3094,7 +3103,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H7" s="180"/>
+      <c r="H7" s="168"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3151,7 +3160,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="180"/>
+      <c r="H8" s="168"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3208,7 +3217,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="180"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3249,8 +3258,12 @@
       <c r="B10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="83">
+        <v>45863</v>
+      </c>
       <c r="E10" s="58">
         <v>12</v>
       </c>
@@ -3259,9 +3272,9 @@
       </c>
       <c r="G10" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="180"/>
+        <v>24</v>
+      </c>
+      <c r="H10" s="168"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3302,8 +3315,12 @@
       <c r="B11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="83">
+        <v>45875</v>
+      </c>
       <c r="E11" s="58">
         <v>24</v>
       </c>
@@ -3312,9 +3329,9 @@
       </c>
       <c r="G11" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="180"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="168"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3355,8 +3372,12 @@
       <c r="B12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="83">
+        <v>45896</v>
+      </c>
       <c r="E12" s="58">
         <v>9</v>
       </c>
@@ -3365,9 +3386,9 @@
       </c>
       <c r="G12" s="140">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="180"/>
+        <v>21</v>
+      </c>
+      <c r="H12" s="168"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3420,7 +3441,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="180"/>
+      <c r="H13" s="168"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3473,7 +3494,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="180"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3526,7 +3547,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="180"/>
+      <c r="H15" s="168"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3579,7 +3600,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="180"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3632,14 +3653,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="180"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="165"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="155"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3685,7 +3706,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="180"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3738,9 +3759,9 @@
       </c>
       <c r="G19" s="144">
         <f>SUM(G6:G18)</f>
-        <v>114</v>
-      </c>
-      <c r="H19" s="180"/>
+        <v>205</v>
+      </c>
+      <c r="H19" s="168"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3894,14 +3915,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="176"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="165"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="155"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3935,17 +3956,21 @@
       <c r="B23" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="83">
+        <v>45898</v>
+      </c>
       <c r="E23" s="58">
         <v>24</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="58">
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="152"/>
+        <v>24</v>
+      </c>
+      <c r="H23" s="176"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3996,7 +4021,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="152"/>
+      <c r="H24" s="176"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4047,7 +4072,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="152"/>
+      <c r="H25" s="176"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4098,7 +4123,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="152"/>
+      <c r="H26" s="176"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4142,7 +4167,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
-      <c r="H27" s="152"/>
+      <c r="H27" s="176"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4195,9 +4220,9 @@
       </c>
       <c r="G28" s="60">
         <f>SUM(G22:H27)</f>
-        <v>24</v>
-      </c>
-      <c r="H28" s="152"/>
+        <v>48</v>
+      </c>
+      <c r="H28" s="176"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4235,20 +4260,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="176"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="164"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="165"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="155"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4286,12 +4311,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="173"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="161"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4322,13 +4347,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="167"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4508,23 +4533,23 @@
       <c r="D35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="157" t="s">
+      <c r="E35" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="173"/>
       <c r="G35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="153" t="s">
+      <c r="H35" s="177" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="165"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="155"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4564,14 +4589,14 @@
       <c r="D36" s="64">
         <v>45701</v>
       </c>
-      <c r="E36" s="158" t="s">
+      <c r="E36" s="174" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="175"/>
       <c r="G36" s="108">
         <v>7</v>
       </c>
-      <c r="H36" s="154"/>
+      <c r="H36" s="178"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4609,20 +4634,30 @@
     </row>
     <row r="37" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="154"/>
+      <c r="B37" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="65">
+        <v>45879</v>
+      </c>
+      <c r="E37" s="174" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="175"/>
+      <c r="G37" s="108">
+        <v>6</v>
+      </c>
+      <c r="H37" s="178"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="170"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="158"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4656,10 +4691,10 @@
       <c r="B38" s="84"/>
       <c r="C38" s="80"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="154"/>
+      <c r="H38" s="178"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4700,17 +4735,17 @@
       <c r="B39" s="92"/>
       <c r="C39" s="80"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="154"/>
+      <c r="H39" s="178"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="165"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="155"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4744,10 +4779,10 @@
       <c r="B40" s="84"/>
       <c r="C40" s="80"/>
       <c r="D40" s="83"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="154"/>
+      <c r="H40" s="178"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4788,10 +4823,10 @@
       <c r="B41" s="84"/>
       <c r="C41" s="80"/>
       <c r="D41" s="83"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="154"/>
+      <c r="H41" s="178"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4832,10 +4867,10 @@
       <c r="B42" s="84"/>
       <c r="C42" s="80"/>
       <c r="D42" s="83"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="154"/>
+      <c r="H42" s="178"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4876,10 +4911,10 @@
       <c r="B43" s="84"/>
       <c r="C43" s="80"/>
       <c r="D43" s="83"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="154"/>
+      <c r="H43" s="178"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4920,9 +4955,9 @@
       <c r="B44" s="84"/>
       <c r="C44" s="80"/>
       <c r="D44" s="83"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="H44" s="154"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="H44" s="178"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4963,10 +4998,10 @@
       <c r="B45" s="84"/>
       <c r="C45" s="80"/>
       <c r="D45" s="83"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
       <c r="G45" s="108"/>
-      <c r="H45" s="154"/>
+      <c r="H45" s="178"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5007,10 +5042,10 @@
       <c r="B46" s="84"/>
       <c r="C46" s="80"/>
       <c r="D46" s="83"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
       <c r="G46" s="108"/>
-      <c r="H46" s="154"/>
+      <c r="H46" s="178"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5051,10 +5086,10 @@
       <c r="B47" s="84"/>
       <c r="C47" s="80"/>
       <c r="D47" s="83"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
       <c r="G47" s="108"/>
-      <c r="H47" s="154"/>
+      <c r="H47" s="178"/>
       <c r="I47" s="43"/>
       <c r="J47" s="37"/>
       <c r="K47" s="2"/>
@@ -5095,10 +5130,10 @@
       <c r="B48" s="84"/>
       <c r="C48" s="80"/>
       <c r="D48" s="83"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
       <c r="G48" s="63"/>
-      <c r="H48" s="154"/>
+      <c r="H48" s="178"/>
       <c r="I48" s="43"/>
       <c r="J48" s="37"/>
       <c r="K48" s="2"/>
@@ -5139,10 +5174,10 @@
       <c r="B49" s="85"/>
       <c r="C49" s="80"/>
       <c r="D49" s="58"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
       <c r="G49" s="63"/>
-      <c r="H49" s="154"/>
+      <c r="H49" s="178"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5183,10 +5218,10 @@
       <c r="B50" s="81"/>
       <c r="C50" s="80"/>
       <c r="D50" s="58"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
       <c r="G50" s="63"/>
-      <c r="H50" s="154"/>
+      <c r="H50" s="178"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5227,10 +5262,10 @@
       <c r="B51" s="81"/>
       <c r="C51" s="80"/>
       <c r="D51" s="58"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
       <c r="G51" s="63"/>
-      <c r="H51" s="154"/>
+      <c r="H51" s="178"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5271,10 +5306,10 @@
       <c r="B52" s="81"/>
       <c r="C52" s="80"/>
       <c r="D52" s="58"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="172"/>
       <c r="G52" s="63"/>
-      <c r="H52" s="154"/>
+      <c r="H52" s="178"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5315,10 +5350,10 @@
       <c r="B53" s="81"/>
       <c r="C53" s="80"/>
       <c r="D53" s="58"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
       <c r="G53" s="63"/>
-      <c r="H53" s="154"/>
+      <c r="H53" s="178"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5359,10 +5394,10 @@
       <c r="B54" s="81"/>
       <c r="C54" s="80"/>
       <c r="D54" s="58"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
       <c r="G54" s="63"/>
-      <c r="H54" s="154"/>
+      <c r="H54" s="178"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5403,10 +5438,10 @@
       <c r="B55" s="58"/>
       <c r="C55" s="80"/>
       <c r="D55" s="58"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="151"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="172"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="154"/>
+      <c r="H55" s="178"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5447,10 +5482,10 @@
       <c r="B56" s="58"/>
       <c r="C56" s="80"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
       <c r="G56" s="63"/>
-      <c r="H56" s="154"/>
+      <c r="H56" s="178"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5491,10 +5526,10 @@
       <c r="B57" s="58"/>
       <c r="C57" s="80"/>
       <c r="D57" s="58"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
       <c r="G57" s="63"/>
-      <c r="H57" s="154"/>
+      <c r="H57" s="178"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5535,10 +5570,10 @@
       <c r="B58" s="58"/>
       <c r="C58" s="80"/>
       <c r="D58" s="58"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
       <c r="G58" s="63"/>
-      <c r="H58" s="154"/>
+      <c r="H58" s="178"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5579,10 +5614,10 @@
       <c r="B59" s="58"/>
       <c r="C59" s="80"/>
       <c r="D59" s="58"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
       <c r="G59" s="63"/>
-      <c r="H59" s="154"/>
+      <c r="H59" s="178"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5623,10 +5658,10 @@
       <c r="B60" s="58"/>
       <c r="C60" s="80"/>
       <c r="D60" s="58"/>
-      <c r="E60" s="151"/>
-      <c r="F60" s="151"/>
+      <c r="E60" s="172"/>
+      <c r="F60" s="172"/>
       <c r="G60" s="63"/>
-      <c r="H60" s="154"/>
+      <c r="H60" s="178"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5669,13 +5704,13 @@
       </c>
       <c r="C61" s="132"/>
       <c r="D61" s="133"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
       <c r="G61" s="36">
         <f>SUM(G36:G60)</f>
-        <v>7</v>
-      </c>
-      <c r="H61" s="155"/>
+        <v>13</v>
+      </c>
+      <c r="H61" s="179"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5766,7 +5801,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="51">
         <f>G61+G19+G28+G62</f>
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="H63" s="44"/>
       <c r="I63" s="2"/>
@@ -5945,7 +5980,7 @@
       </c>
       <c r="C67" s="58">
         <f>G63</f>
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -5993,7 +6028,7 @@
       </c>
       <c r="C68" s="60">
         <f>C66-C67</f>
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -11876,32 +11911,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -11918,6 +11927,32 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -11937,7 +11972,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C33 C10:C20</xm:sqref>
+          <xm:sqref>C33 C13:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -25625,10 +25660,10 @@
       <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="189" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="187">
+      <c r="B2" s="193">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -25684,8 +25719,8 @@
       <c r="AH2" s="71"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="184"/>
-      <c r="B3" s="181"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="76" t="s">
         <v>144</v>
       </c>
@@ -25736,8 +25771,8 @@
       <c r="AH3" s="71"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="184"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="76" t="s">
         <v>145</v>
       </c>
@@ -25788,8 +25823,8 @@
       <c r="AH4" s="71"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
-      <c r="B5" s="186"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="76" t="s">
         <v>146</v>
       </c>
@@ -25840,8 +25875,8 @@
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="181">
+      <c r="A6" s="190"/>
+      <c r="B6" s="187">
         <v>2</v>
       </c>
       <c r="C6" s="76" t="s">
@@ -25896,8 +25931,8 @@
       <c r="AH6" s="71"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
@@ -25948,8 +25983,8 @@
       <c r="AH7" s="71"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="76" t="s">
         <v>149</v>
       </c>
@@ -25999,8 +26034,8 @@
       <c r="AH8" s="71"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="76" t="s">
         <v>150</v>
       </c>
@@ -26055,8 +26090,8 @@
       <c r="AH9" s="71"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="181">
+      <c r="A10" s="190"/>
+      <c r="B10" s="187">
         <v>3</v>
       </c>
       <c r="C10" s="76" t="s">
@@ -26114,8 +26149,8 @@
       <c r="AH10" s="71"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="76" t="s">
         <v>155</v>
       </c>
@@ -26170,8 +26205,8 @@
       <c r="AH11" s="71"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="76" t="s">
         <v>157</v>
       </c>
@@ -26229,8 +26264,8 @@
       <c r="AH12" s="71"/>
     </row>
     <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="181"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="76" t="s">
         <v>162</v>
       </c>
@@ -26296,8 +26331,8 @@
       <c r="AH13" s="71"/>
     </row>
     <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
-      <c r="B14" s="181">
+      <c r="A14" s="190"/>
+      <c r="B14" s="187">
         <v>4</v>
       </c>
       <c r="C14" s="76" t="s">
@@ -26364,8 +26399,8 @@
       <c r="AH14" s="71"/>
     </row>
     <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="76" t="s">
         <v>165</v>
       </c>
@@ -26428,8 +26463,8 @@
       <c r="AH15" s="71"/>
     </row>
     <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="76" t="s">
         <v>166</v>
       </c>
@@ -26492,8 +26527,8 @@
       <c r="AH16" s="71"/>
     </row>
     <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
-      <c r="B17" s="181"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="76" t="s">
         <v>167</v>
       </c>
@@ -26556,8 +26591,8 @@
       <c r="AH17" s="71"/>
     </row>
     <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
-      <c r="B18" s="181">
+      <c r="A18" s="190"/>
+      <c r="B18" s="187">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
@@ -26624,8 +26659,8 @@
       <c r="AH18" s="71"/>
     </row>
     <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
-      <c r="B19" s="181"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="76" t="s">
         <v>169</v>
       </c>
@@ -26689,8 +26724,8 @@
       <c r="AH19" s="71"/>
     </row>
     <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="184"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="76" t="s">
         <v>170</v>
       </c>
@@ -26753,8 +26788,8 @@
       <c r="AH20" s="71"/>
     </row>
     <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
-      <c r="B21" s="181"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="76" t="s">
         <v>171</v>
       </c>
@@ -26817,8 +26852,8 @@
       <c r="AG21" s="87"/>
     </row>
     <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="181">
+      <c r="A22" s="190"/>
+      <c r="B22" s="187">
         <v>6</v>
       </c>
       <c r="C22" s="76" t="s">
@@ -26884,8 +26919,8 @@
       <c r="AG22" s="87"/>
     </row>
     <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="76" t="s">
         <v>173</v>
       </c>
@@ -26950,8 +26985,8 @@
       <c r="AG23" s="87"/>
     </row>
     <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="181"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="187"/>
       <c r="C24" s="76" t="s">
         <v>174</v>
       </c>
@@ -27012,8 +27047,8 @@
       <c r="AG24" s="87"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="181"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="187"/>
       <c r="C25" s="76" t="s">
         <v>175</v>
       </c>
@@ -27071,8 +27106,8 @@
       <c r="AG25" s="71"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="181">
+      <c r="A26" s="190"/>
+      <c r="B26" s="187">
         <v>7</v>
       </c>
       <c r="C26" s="76" t="s">
@@ -27132,8 +27167,8 @@
       <c r="AG26" s="71"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="181"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="76" t="s">
         <v>177</v>
       </c>
@@ -27189,8 +27224,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="181"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="76" t="s">
         <v>179</v>
       </c>
@@ -27246,8 +27281,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
-      <c r="B29" s="181"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="76" t="s">
         <v>181</v>
       </c>
@@ -27304,8 +27339,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="181">
+      <c r="A30" s="190"/>
+      <c r="B30" s="187">
         <v>8</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -27363,8 +27398,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="181"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="76" t="s">
         <v>186</v>
       </c>
@@ -27419,8 +27454,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="190"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="76" t="s">
         <v>188</v>
       </c>
@@ -27470,8 +27505,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="187"/>
       <c r="C33" s="76" t="s">
         <v>189</v>
       </c>
@@ -27517,8 +27552,8 @@
       <c r="AA33" s="71"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
-      <c r="B34" s="181">
+      <c r="A34" s="190"/>
+      <c r="B34" s="187">
         <v>9</v>
       </c>
       <c r="C34" s="76" t="s">
@@ -27564,8 +27599,8 @@
       <c r="AA34" s="71"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="184"/>
-      <c r="B35" s="181"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="187"/>
       <c r="C35" s="76" t="s">
         <v>191</v>
       </c>
@@ -27608,8 +27643,8 @@
       <c r="AA35" s="71"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
-      <c r="B36" s="181"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="187"/>
       <c r="C36" s="76" t="s">
         <v>192</v>
       </c>
@@ -27654,8 +27689,8 @@
       <c r="AA36" s="71"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
-      <c r="B37" s="181"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="187"/>
       <c r="C37" s="76" t="s">
         <v>193</v>
       </c>
@@ -27698,8 +27733,8 @@
       <c r="AA37" s="71"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
-      <c r="B38" s="181">
+      <c r="A38" s="190"/>
+      <c r="B38" s="187">
         <v>10</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -27747,8 +27782,8 @@
       <c r="AH38" s="71"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="181"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="187"/>
       <c r="C39" s="76" t="s">
         <v>195</v>
       </c>
@@ -27793,8 +27828,8 @@
       <c r="AH39" s="71"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
-      <c r="B40" s="181"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="187"/>
       <c r="C40" s="76" t="s">
         <v>196</v>
       </c>
@@ -27838,8 +27873,8 @@
       <c r="AH40" s="71"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="187"/>
       <c r="C41" s="76" t="s">
         <v>197</v>
       </c>
@@ -27889,8 +27924,8 @@
       <c r="AH41" s="71"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
-      <c r="B42" s="181">
+      <c r="A42" s="190"/>
+      <c r="B42" s="187">
         <v>11</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -27943,8 +27978,8 @@
       <c r="AH42" s="71"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
-      <c r="B43" s="181"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="187"/>
       <c r="C43" s="76" t="s">
         <v>199</v>
       </c>
@@ -27997,8 +28032,8 @@
       <c r="AH43" s="71"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="181"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="76" t="s">
         <v>200</v>
       </c>
@@ -28048,8 +28083,8 @@
       <c r="AH44" s="71"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
-      <c r="B45" s="181"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="187"/>
       <c r="C45" s="76" t="s">
         <v>201</v>
       </c>
@@ -28099,8 +28134,8 @@
       <c r="AH45" s="71"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
-      <c r="B46" s="181">
+      <c r="A46" s="190"/>
+      <c r="B46" s="187">
         <v>12</v>
       </c>
       <c r="C46" s="76" t="s">
@@ -28154,8 +28189,8 @@
       <c r="AH46" s="71"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="181"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="187"/>
       <c r="C47" s="76" t="s">
         <v>203</v>
       </c>
@@ -28205,8 +28240,8 @@
       <c r="AH47" s="71"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="184"/>
-      <c r="B48" s="181"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="187"/>
       <c r="C48" s="76" t="s">
         <v>204</v>
       </c>
@@ -28258,8 +28293,8 @@
       <c r="AH48" s="71"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
-      <c r="B49" s="181"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="187"/>
       <c r="C49" s="76" t="s">
         <v>205</v>
       </c>
@@ -28309,8 +28344,8 @@
       <c r="AH49" s="71"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
-      <c r="B50" s="181">
+      <c r="A50" s="190"/>
+      <c r="B50" s="187">
         <v>13</v>
       </c>
       <c r="C50" s="76" t="s">
@@ -28364,8 +28399,8 @@
       <c r="AH50" s="71"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="184"/>
-      <c r="B51" s="181"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="187"/>
       <c r="C51" s="76" t="s">
         <v>207</v>
       </c>
@@ -28415,8 +28450,8 @@
       <c r="AH51" s="71"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="184"/>
-      <c r="B52" s="181"/>
+      <c r="A52" s="190"/>
+      <c r="B52" s="187"/>
       <c r="C52" s="76" t="s">
         <v>208</v>
       </c>
@@ -28465,8 +28500,8 @@
       <c r="AH52" s="71"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
-      <c r="B53" s="181"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="187"/>
       <c r="C53" s="76" t="s">
         <v>209</v>
       </c>
@@ -28516,8 +28551,8 @@
       <c r="AH53" s="71"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
-      <c r="B54" s="181">
+      <c r="A54" s="190"/>
+      <c r="B54" s="187">
         <v>14</v>
       </c>
       <c r="C54" s="76" t="s">
@@ -28571,8 +28606,8 @@
       <c r="AH54" s="71"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A55" s="184"/>
-      <c r="B55" s="181"/>
+      <c r="A55" s="190"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="76" t="s">
         <v>211</v>
       </c>
@@ -28623,8 +28658,8 @@
       <c r="AH55" s="71"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A56" s="184"/>
-      <c r="B56" s="181"/>
+      <c r="A56" s="190"/>
+      <c r="B56" s="187"/>
       <c r="C56" s="76" t="s">
         <v>212</v>
       </c>
@@ -28674,8 +28709,8 @@
       <c r="AH56" s="71"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
-      <c r="B57" s="181"/>
+      <c r="A57" s="190"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="76" t="s">
         <v>213</v>
       </c>
@@ -28726,8 +28761,8 @@
       <c r="AH57" s="71"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
-      <c r="B58" s="181">
+      <c r="A58" s="190"/>
+      <c r="B58" s="187">
         <v>15</v>
       </c>
       <c r="C58" s="76" t="s">
@@ -28782,8 +28817,8 @@
       <c r="AH58" s="71"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="184"/>
-      <c r="B59" s="181"/>
+      <c r="A59" s="190"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="76" t="s">
         <v>215</v>
       </c>
@@ -28834,8 +28869,8 @@
       <c r="AH59" s="71"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="184"/>
-      <c r="B60" s="181"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="76" t="s">
         <v>216</v>
       </c>
@@ -28886,8 +28921,8 @@
       <c r="AH60" s="71"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
-      <c r="B61" s="182"/>
+      <c r="A61" s="191"/>
+      <c r="B61" s="188"/>
       <c r="C61" s="78" t="s">
         <v>217</v>
       </c>
@@ -28938,10 +28973,10 @@
       <c r="AH61" s="71"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="183" t="s">
+      <c r="A62" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="186">
+      <c r="B62" s="192">
         <v>16</v>
       </c>
       <c r="C62" s="76" t="s">
@@ -28993,8 +29028,8 @@
       <c r="AH62" s="71"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A63" s="184"/>
-      <c r="B63" s="181"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="187"/>
       <c r="C63" s="76" t="s">
         <v>219</v>
       </c>
@@ -29044,8 +29079,8 @@
       <c r="AH63" s="71"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="184"/>
-      <c r="B64" s="181"/>
+      <c r="A64" s="190"/>
+      <c r="B64" s="187"/>
       <c r="C64" s="76" t="s">
         <v>220</v>
       </c>
@@ -29095,8 +29130,8 @@
       <c r="AH64" s="71"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
-      <c r="B65" s="181"/>
+      <c r="A65" s="190"/>
+      <c r="B65" s="187"/>
       <c r="C65" s="76" t="s">
         <v>221</v>
       </c>
@@ -29146,8 +29181,8 @@
       <c r="AH65" s="71"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
-      <c r="B66" s="181">
+      <c r="A66" s="190"/>
+      <c r="B66" s="187">
         <v>17</v>
       </c>
       <c r="C66" s="76" t="s">
@@ -29199,8 +29234,8 @@
       <c r="AH66" s="71"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" s="184"/>
-      <c r="B67" s="181"/>
+      <c r="A67" s="190"/>
+      <c r="B67" s="187"/>
       <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
@@ -29250,8 +29285,8 @@
       <c r="AH67" s="71"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A68" s="184"/>
-      <c r="B68" s="181"/>
+      <c r="A68" s="190"/>
+      <c r="B68" s="187"/>
       <c r="C68" s="76" t="s">
         <v>224</v>
       </c>
@@ -29301,8 +29336,8 @@
       <c r="AH68" s="71"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
-      <c r="B69" s="181"/>
+      <c r="A69" s="190"/>
+      <c r="B69" s="187"/>
       <c r="C69" s="76" t="s">
         <v>225</v>
       </c>
@@ -29352,8 +29387,8 @@
       <c r="AH69" s="71"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
-      <c r="B70" s="181">
+      <c r="A70" s="190"/>
+      <c r="B70" s="187">
         <v>18</v>
       </c>
       <c r="C70" s="76" t="s">
@@ -29405,8 +29440,8 @@
       <c r="AH70" s="71"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A71" s="184"/>
-      <c r="B71" s="181"/>
+      <c r="A71" s="190"/>
+      <c r="B71" s="187"/>
       <c r="C71" s="76" t="s">
         <v>227</v>
       </c>
@@ -29456,8 +29491,8 @@
       <c r="AH71" s="71"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="184"/>
-      <c r="B72" s="181"/>
+      <c r="A72" s="190"/>
+      <c r="B72" s="187"/>
       <c r="C72" s="76" t="s">
         <v>228</v>
       </c>
@@ -29507,8 +29542,8 @@
       <c r="AH72" s="71"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
-      <c r="B73" s="181"/>
+      <c r="A73" s="190"/>
+      <c r="B73" s="187"/>
       <c r="C73" s="76" t="s">
         <v>229</v>
       </c>
@@ -29558,8 +29593,8 @@
       <c r="AH73" s="71"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
-      <c r="B74" s="181">
+      <c r="A74" s="190"/>
+      <c r="B74" s="187">
         <v>19</v>
       </c>
       <c r="C74" s="76" t="s">
@@ -29611,8 +29646,8 @@
       <c r="AH74" s="71"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="184"/>
-      <c r="B75" s="181"/>
+      <c r="A75" s="190"/>
+      <c r="B75" s="187"/>
       <c r="C75" s="76" t="s">
         <v>231</v>
       </c>
@@ -29662,8 +29697,8 @@
       <c r="AH75" s="71"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A76" s="184"/>
-      <c r="B76" s="181"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="187"/>
       <c r="C76" s="76" t="s">
         <v>232</v>
       </c>
@@ -29713,8 +29748,8 @@
       <c r="AH76" s="71"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A77" s="185"/>
-      <c r="B77" s="182"/>
+      <c r="A77" s="191"/>
+      <c r="B77" s="188"/>
       <c r="C77" s="78" t="s">
         <v>233</v>
       </c>
@@ -29901,10 +29936,10 @@
     <row r="80" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
-      <c r="C80" s="190" t="s">
+      <c r="C80" s="183" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="191"/>
+      <c r="D80" s="184"/>
       <c r="E80" s="75">
         <v>60</v>
       </c>
@@ -29943,10 +29978,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
-      <c r="C81" s="192" t="s">
+      <c r="C81" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="193"/>
+      <c r="D81" s="186"/>
       <c r="E81" s="77">
         <v>322.5</v>
       </c>
@@ -29983,10 +30018,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
-      <c r="C82" s="192" t="s">
+      <c r="C82" s="185" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="193"/>
+      <c r="D82" s="186"/>
       <c r="E82" s="77">
         <v>35</v>
       </c>
@@ -30023,10 +30058,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
-      <c r="C83" s="192" t="s">
+      <c r="C83" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="193"/>
+      <c r="D83" s="186"/>
       <c r="E83" s="77">
         <v>287</v>
       </c>
@@ -30063,10 +30098,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
-      <c r="C84" s="192" t="s">
+      <c r="C84" s="185" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="193"/>
+      <c r="D84" s="186"/>
       <c r="E84" s="77">
         <v>60</v>
       </c>
@@ -30103,10 +30138,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
-      <c r="C85" s="188" t="s">
+      <c r="C85" s="181" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="189"/>
+      <c r="D85" s="182"/>
       <c r="E85" s="79">
         <f>Y79</f>
         <v>483</v>
@@ -30174,17 +30209,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -30201,6 +30225,17 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30572,35 +30607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b1023a92-dbec-45a4-bb83-a4551f519714">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_activity xmlns="bad96bf2-a978-419b-857e-f041088cbe29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEE32E084D91FD4283E80A6FB1C1380B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54ea750e0a0f326e2111beccd9c87066">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bad96bf2-a978-419b-857e-f041088cbe29" xmlns:ns4="b1023a92-dbec-45a4-bb83-a4551f519714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="413a4c7486017379570c1da3f7b843fa" ns3:_="" ns4:_="">
     <xsd:import namespace="bad96bf2-a978-419b-857e-f041088cbe29"/>
@@ -30827,10 +30833,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b1023a92-dbec-45a4-bb83-a4551f519714">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_activity xmlns="bad96bf2-a978-419b-857e-f041088cbe29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2A4EB8-8E9D-424D-B827-F9A389FEA11F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bad96bf2-a978-419b-857e-f041088cbe29"/>
+    <ds:schemaRef ds:uri="b1023a92-dbec-45a4-bb83-a4551f519714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30853,20 +30899,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2A4EB8-8E9D-424D-B827-F9A389FEA11F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bad96bf2-a978-419b-857e-f041088cbe29"/>
-    <ds:schemaRef ds:uri="b1023a92-dbec-45a4-bb83-a4551f519714"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
